--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -17,13 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>織田　信長</t>
-  </si>
-  <si>
-    <t>桶狭間-おけはざま
-標榜-ひょうぼう
-統一-とういつ
-謀叛-むほん
-本能寺-ほんのうじ</t>
   </si>
   <si>
     <t>明智　光秀</t>
@@ -148,6 +141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,6 +188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,6 +206,13 @@
   <si>
     <t>毘沙門-びしゃもん
 翻す-ひるがえす</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶狭間-おけはざま
+標榜-ひょうぼう
+統一-とういつ
+謀叛-むほん</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -621,144 +623,144 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="67.5">
+    <row r="2" spans="2:5" ht="54">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="54">
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="54">
       <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="54">
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="54">
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="54">
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="54">
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="54">
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="54">
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="54">
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -1,28 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="3525"/>
+    <workbookView windowWidth="19020" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>織田　信長</t>
   </si>
   <si>
+    <t>おだ　のぶなが</t>
+  </si>
+  <si>
+    <t>信秀の嫡男。今川義元を桶狭間で破る。以後、天下布武を標榜して、敵対勢力を次々滅ぼした。天下統一を目前にして、明智光秀の謀叛に遭い、本能寺に散った。</t>
+  </si>
+  <si>
+    <t>桶狭間-おけはざま
+標榜-ひょうぼう
+統一-とういつ
+謀叛-むほん</t>
+  </si>
+  <si>
+    <t>帰蝶</t>
+  </si>
+  <si>
+    <t>きちょう</t>
+  </si>
+  <si>
+    <t>斎藤道三の娘。濃姫。父と織田家が和睦した際、織田信長に嫁ぐ。本能寺の変後は信長の次男・信雄を頼り、尾張に化粧領を与えられ安土殿と呼ばれたという。</t>
+  </si>
+  <si>
+    <t>和睦-わぼく
+嫁ぐ-とつぐ</t>
+  </si>
+  <si>
     <t>明智　光秀</t>
   </si>
   <si>
     <t>あけち　みつひで</t>
+  </si>
+  <si>
+    <t>織田家臣。優れた才知と教養により重用されるが、突如謀叛を起こし、信長を本能寺に討つ。しかし事後調略に失敗し、山崎合戦で敗れ、逃亡中に殺された。</t>
   </si>
   <si>
     <t>優れる-すぐれる
@@ -33,6 +61,9 @@
   </si>
   <si>
     <t>しばた　かついえ</t>
+  </si>
+  <si>
+    <t>織田家臣。「かかれ柴田」異名をとった猛将。北陸方面軍の総大将を務めた。本能寺の変後、羽柴秀吉と争い、賤ヶ岳合戦で敗れ、居城・北ノ庄城で自害した。</t>
   </si>
   <si>
     <t>異名-いみょう
@@ -41,13 +72,28 @@
 賤ヶ岳-しずがたけ</t>
   </si>
   <si>
+    <t>お市</t>
+  </si>
+  <si>
+    <t>おいち</t>
+  </si>
+  <si>
+    <t>織田信長の妹。浅い長政に嫁ぐが、長政の自害後、実家に戻る。本能寺の変後は柴田勝家に嫁ぎ、勝家とともに越前北ノ庄城で自害した。絶世の美女と伝わる。</t>
+  </si>
+  <si>
+    <t>絶世-ぜっせい</t>
+  </si>
+  <si>
     <t>滝川　一益</t>
   </si>
   <si>
     <t>たきがわ　かずます</t>
   </si>
   <si>
-    <t>退く-しりぞく
+    <t>織田家臣。各地の合戦で活躍し「進むも退くも滝川」と称された。甲斐平定後、関東管領となる。本能寺の変後、北条軍と戦って惨敗し、以後は勢威を失った。</t>
+  </si>
+  <si>
+    <t>退く-のく
 管領-かんれい</t>
   </si>
   <si>
@@ -57,7 +103,7 @@
     <t>にわ　ながひで</t>
   </si>
   <si>
-    <t>織田家臣。「米五郎左」の異名をとる。安土城の普請奉行を務めるなど、行政面で活躍した。本能寺の変後は羽柴秀吉に属し、越前北荘１２０万石を領した。</t>
+    <t>織田家臣。「米五郎左」の異名をとる。安土城の普請奉行を務めるなど、行政面で活躍した。本能寺の変後は羽柴秀吉に属し、越前北ノ庄１２０万石を領した。</t>
   </si>
   <si>
     <t>安土城-あづちじょう
@@ -66,12 +112,84 @@
 石高-こくだか</t>
   </si>
   <si>
+    <t>佐久間　信盛</t>
+  </si>
+  <si>
+    <t>さくま　のぶもり</t>
+  </si>
+  <si>
+    <t>織田家臣。各地の合戦で活躍し「退き佐久間」の異名をとる。石山本願寺攻めの総大将を務めるが、本願寺の退去後、怠慢不手際の叱責を受け、追放された。</t>
+  </si>
+  <si>
+    <t>退く-のく
+不手際-ふてぎわ</t>
+  </si>
+  <si>
+    <t>前田　利家</t>
+  </si>
+  <si>
+    <t>まえだ　としいえ</t>
+  </si>
+  <si>
+    <t>織田家臣。数々の合戦で活躍し「槍の又左」の異名をとった。のちに柴田勝家に従って北陸平定に貢献。信長の死後は豊臣秀吉に仕え、五大老の１人となった。</t>
+  </si>
+  <si>
+    <t>槍-やり</t>
+  </si>
+  <si>
+    <t>まつ</t>
+  </si>
+  <si>
+    <t>前田利家の正室。２男９女を産む。秀吉の正室・ねねとは昵懇の仲で、賤ヶ岳の戦いでは秀吉と自ら交渉して和議を成立させた。利家没後は、芳春院と号した。</t>
+  </si>
+  <si>
+    <t>昵懇-じっこん
+自ら-みずから
+交渉-こうしょう
+没-ぼつ</t>
+  </si>
+  <si>
+    <t>佐々　成政</t>
+  </si>
+  <si>
+    <t>さっさ　なりまさ</t>
+  </si>
+  <si>
+    <t>織田家臣。柴田勝家に属して北陸の攻略に貢献する。本能寺の変後、羽柴秀吉と対立するが、敗れて降伏。転封先・肥後の領国経営に失敗し自害を命じられた。</t>
+  </si>
+  <si>
+    <t>命じる-めいじる</t>
+  </si>
+  <si>
+    <t>池田　恒興</t>
+  </si>
+  <si>
+    <t>いけだ　つねおき</t>
+  </si>
+  <si>
+    <t>織田家臣。信長の乳兄弟。姉川合戦などで活躍した。本能寺の変後は、織田家四宿老の１人となる。羽柴秀吉に味方して小牧・長久手の合戦に出陣し、戦死した。</t>
+  </si>
+  <si>
+    <t>小牧・長久手-こまき・ながくて</t>
+  </si>
+  <si>
     <t>豊臣　秀吉
-羽柴　秀吉</t>
+羽柴　秀吉
+木下　秀吉</t>
   </si>
   <si>
     <t>とよとみ　ひでよし
-はしば　ひでよし</t>
+はしば　ひでよし
+きのした　ひでよし</t>
+  </si>
+  <si>
+    <t>戦国一の出世頭。織田信長に仕え、傑出した人望と知略を武器に活躍し、頭角を現す。本能寺の変後、明智光秀、柴田勝家らを次々と倒し、天下に覇を唱える</t>
+  </si>
+  <si>
+    <t>出世頭-しゅっせがしら
+人望-じんぼう
+次々と-动作、作用的方式、状态
+唱える-となえる</t>
   </si>
   <si>
     <t>徳川　家康</t>
@@ -80,6 +198,9 @@
     <t>とくがわ　いえやす</t>
   </si>
   <si>
+    <t>江戸幕府の創始者。広忠の子。桶狭間の合戦後に自立。織田家との同盟、豊臣家への従属を経て勢力を拡大する。関ケ原合戦で勝利を収め征夷大将軍となった。</t>
+  </si>
+  <si>
     <t>収める-おさめる</t>
   </si>
   <si>
@@ -89,50 +210,21 @@
     <t>いまがわ　よしもと</t>
   </si>
   <si>
-    <t>武田　信玄</t>
-  </si>
-  <si>
-    <t>たけだ　しんげん</t>
-  </si>
-  <si>
-    <t>甲斐守護。信虎の嫡男。苛烈な政策に反対して父を追放、当主となる。精強な騎馬軍団を率い、臨機応変の知略で織田信長を苦しめた。通称「甲斐の虎」。</t>
-  </si>
-  <si>
-    <t>率いる-ひきいる</t>
-  </si>
-  <si>
-    <t>上杉　謙信</t>
-  </si>
-  <si>
-    <t>うえすぎ　けんしん</t>
-  </si>
-  <si>
-    <t>越後の戦国大名。為景の次男。上杉憲政から関東管領職を譲られ、上杉姓を名乗る。「毘」の軍旗を翻して疾駆する姿は軍神と恐れられた。通称「越後の龍」。</t>
-  </si>
-  <si>
-    <t>おだ　のぶなが</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信秀の嫡男。今川義元を桶狭間で破る。以後、天下布武を標榜して、敵対勢力を次々滅ぼした。天下統一を目前にして、明智光秀の謀叛に遭い、本能寺に散った。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>織田家臣。優れた才知と教養により重用されるが、突如謀叛を起こし、信長を本能寺に討つ。しかし事後調略に失敗し、山崎合戦で敗れ、逃亡中に殺された。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>織田家臣。「かかれ柴田」異名をとった猛将。北陸方面軍の総大将を務めた。本能寺の変後、羽柴秀吉と争い、賤ヶ岳合戦で敗れ、居城</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>駿河の戦国大名。異母兄</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>・</t>
     </r>
@@ -141,86 +233,54 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>北荘城で自害した。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>織田家臣。各地の合戦で活躍し「進むも退くも滝川」と称された。甲斐平定後、関東管領となる。本能寺の変後、北条軍と戦って惨敗し、以後は勢威を失った。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戦国一の出世頭。織田信長に仕え、傑出した人望と知略を武器に活躍し、頭角を現す。本能寺の変後、明智光秀、柴田勝家らを次々と倒し、天下に覇を唱える</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出世頭-しゅっせがしら
-仕える-つかえる
-人望-じんぼう
-唱える-となえる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江戸幕府の創始者。広忠の子。桶狭間の合戦後に自立。織田家との同盟、豊臣家への従属を経て勢力を拡大する。関ケ原合戦で勝利を収め征夷大将軍となった。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>駿河の戦国大名。異母兄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>玄広恵探を倒して家督を継ぐ。甲相駿三国同盟を結んで後顧の憂いを断ち、上洛の途に就くが桶狭間で織田信長の奇襲を受け、絶命。</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>異母兄-いぼけい
 継ぐ-つぐ
 後顧の憂い-こうこのうれい
 断ち-たち</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武田　信玄</t>
+  </si>
+  <si>
+    <t>たけだ　しんげん</t>
+  </si>
+  <si>
+    <t>甲斐守護。信虎の嫡男。苛烈な政策に反対して父を追放、当主となる。精強な騎馬軍団を率い、臨機応変の知略で織田信長を苦しめた。通称「甲斐の虎」。</t>
+  </si>
+  <si>
+    <t>率いる-ひきいる</t>
+  </si>
+  <si>
+    <t>上杉　謙信</t>
+  </si>
+  <si>
+    <t>うえすぎ　けんしん</t>
+  </si>
+  <si>
+    <t>越後の戦国大名。為景の次男。上杉憲政から関東管領職を譲られ、上杉姓を名乗る。「毘」の軍旗を翻して疾駆する姿は軍神と恐れられた。通称「越後の龍」。</t>
   </si>
   <si>
     <t>毘沙門-びしゃもん
 翻す-ひるがえす</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶狭間-おけはざま
-標榜-ひょうぼう
-統一-とういつ
-謀叛-むほん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,27 +292,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,12 +456,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -276,22 +651,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -308,14 +925,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -606,14 +1270,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -623,149 +1288,247 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="54">
+    <row r="2" ht="54" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="2:5">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="2:5">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="54">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="54">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="54">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="54">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="54">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="54">
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="54">
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="54">
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="54">
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19020" windowHeight="2805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>織田　信長</t>
   </si>
@@ -78,9 +78,6 @@
     <t>おいち</t>
   </si>
   <si>
-    <t>織田信長の妹。浅い長政に嫁ぐが、長政の自害後、実家に戻る。本能寺の変後は柴田勝家に嫁ぎ、勝家とともに越前北ノ庄城で自害した。絶世の美女と伝わる。</t>
-  </si>
-  <si>
     <t>絶世-ぜっせい</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>織田家臣。柴田勝家に属して北陸の攻略に貢献する。本能寺の変後、羽柴秀吉と対立するが、敗れて降伏。転封先・肥後の領国経営に失敗し自害を命じられた。</t>
-  </si>
-  <si>
-    <t>命じる-めいじる</t>
   </si>
   <si>
     <t>池田　恒興</t>
@@ -269,18 +263,21 @@
     <t>毘沙門-びしゃもん
 翻す-ひるがえす</t>
   </si>
+  <si>
+    <t>織田信長の妹。浅井長政に嫁ぐが、長政の自害後、実家に戻る。本能寺の変後は柴田勝家に嫁ぎ、勝家とともに越前北ノ庄城で自害した。絶世の美女と伝わる。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>命じる-めいじる
+転封-てんぽう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,349 +296,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -664,255 +351,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,58 +373,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1270,15 +671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -1288,7 +688,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="54" spans="2:5">
+    <row r="2" spans="2:5" ht="54">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="2:5">
+    <row r="3" spans="2:5" ht="54">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="2:5">
+    <row r="4" spans="2:5" ht="54">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="2:5">
+    <row r="5" spans="2:5" ht="54">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1344,191 +744,191 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="2:5">
+    <row r="6" spans="2:5" ht="54">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="54">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" ht="54" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="54">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" ht="54" spans="2:5">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="54">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" ht="54" spans="2:5">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="54">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="54" spans="2:5">
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="54">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" ht="54" spans="2:5">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="2:5" ht="54">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" ht="54" spans="2:5">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="54">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" ht="54" spans="2:5">
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="2:5" ht="54">
+      <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" ht="54" spans="2:5">
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="15" spans="2:5" ht="54">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" ht="54" spans="2:5">
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="2:5" ht="54">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" ht="54" spans="2:5">
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="54">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" ht="54" spans="2:5">
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="54">
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" ht="54" spans="2:5">
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="2805"/>
+    <workbookView windowWidth="19020" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>織田　信長</t>
   </si>
@@ -78,6 +78,9 @@
     <t>おいち</t>
   </si>
   <si>
+    <t>織田信長の妹。浅井長政に嫁ぐが、長政の自害後、実家に戻る。本能寺の変後は柴田勝家に嫁ぎ、勝家とともに越前北ノ庄城で自害した。絶世の美女と伝わる。</t>
+  </si>
+  <si>
     <t>絶世-ぜっせい</t>
   </si>
   <si>
@@ -146,6 +149,20 @@
 没-ぼつ</t>
   </si>
   <si>
+    <t>前田　利益</t>
+  </si>
+  <si>
+    <t>まえだ　とします</t>
+  </si>
+  <si>
+    <t>戦国一の傾奇者。滝川益重の子。前田利家の兄・利久の養子となる。槍を使えば天下無双、風雅の道にも造詣深かった。関ケ原合戦では上杉家に属して戦った。</t>
+  </si>
+  <si>
+    <t>傾奇者-かぶきもの
+歌舞伎-かぶき
+無双-むそう</t>
+  </si>
+  <si>
     <t>佐々　成政</t>
   </si>
   <si>
@@ -155,6 +172,10 @@
     <t>織田家臣。柴田勝家に属して北陸の攻略に貢献する。本能寺の変後、羽柴秀吉と対立するが、敗れて降伏。転封先・肥後の領国経営に失敗し自害を命じられた。</t>
   </si>
   <si>
+    <t>命じる-めいじる
+転封-てんぽう</t>
+  </si>
+  <si>
     <t>池田　恒興</t>
   </si>
   <si>
@@ -165,6 +186,96 @@
   </si>
   <si>
     <t>小牧・長久手-こまき・ながくて</t>
+  </si>
+  <si>
+    <t>森　可成</t>
+  </si>
+  <si>
+    <t>もり　よしなり</t>
+  </si>
+  <si>
+    <t>織田家臣。尾張統一戦や桶狭間合戦などで活躍した。宇佐山城主を務め、琵琶湖の南岸を固める。のちに浅井・朝倉連合軍の攻撃を受け、衆寡敵せず戦死した。</t>
+  </si>
+  <si>
+    <t>衆寡敵せず-しゅうかてきせず</t>
+  </si>
+  <si>
+    <t>林　秀貞</t>
+  </si>
+  <si>
+    <t>はやし　ひでさだ</t>
+  </si>
+  <si>
+    <t>織田家臣。筆頭家老。主家の家督争いでは信勝を擁立して敗れるが、許される。その後は目立つ働きがなく、のちに信勝擁立の件を蒸し返され、追放された。</t>
+  </si>
+  <si>
+    <t>目立つ-めだつ
+蒸し返す-むしかえす</t>
+  </si>
+  <si>
+    <t>蒲生　氏郷</t>
+  </si>
+  <si>
+    <t>がもう　うじさと</t>
+  </si>
+  <si>
+    <t>織田家臣。賢秀の子。主君・信長の娘を娶る。本能寺の変後は豊臣秀吉に仕え活躍、陸奥会津９２万石を領した。文武に秀でたその器量を秀吉は恐れたという。</t>
+  </si>
+  <si>
+    <t>娶る-めとる
+秀でる-ひいでる</t>
+  </si>
+  <si>
+    <t>堀　秀政</t>
+  </si>
+  <si>
+    <t>ほり　ひでまさ</t>
+  </si>
+  <si>
+    <t>織田家臣。各地で戦功を立てる一方、徳川家康の饗応役も務めるなど、文武の両面に才能を発揮した。本能寺の変後は豊臣秀吉に属し、一門格の待遇を受けた。</t>
+  </si>
+  <si>
+    <t>饗応-きょうおう</t>
+  </si>
+  <si>
+    <t>堀　直政</t>
+  </si>
+  <si>
+    <t>ほり　なおまさ</t>
+  </si>
+  <si>
+    <t>織田家臣。姓は奥田とも。親族である堀秀政に付き従い、各地で戦功を立てる。秀政死後は息子の堀秀治を補佐。その実績から天下の三陪臣の１人とも称される。</t>
+  </si>
+  <si>
+    <t>陪臣-ばいしん</t>
+  </si>
+  <si>
+    <t>九鬼　嘉隆</t>
+  </si>
+  <si>
+    <t>くき　よしたか</t>
+  </si>
+  <si>
+    <t>織田家臣。志摩海賊衆の１人。木津川口合戦での大敗を契機に「鉄甲船」を建造し、毛利水軍を粉砕する。その功で大名に出世し「海賊大名」の異名をとった。</t>
+  </si>
+  <si>
+    <t>木津川-きづがわ
+鉄甲船-てっこうせん
+粉砕-ふんさい</t>
+  </si>
+  <si>
+    <t>不破　光治</t>
+  </si>
+  <si>
+    <t>ふわ　みつはる</t>
+  </si>
+  <si>
+    <t>斎藤家臣。主家滅亡後は織田家に属す。主君・信長の馬廻を務め、各地で活躍した。のちに柴田勝家の目付として越前に赴く。本能寺の変後は勝家に属した。</t>
+  </si>
+  <si>
+    <t>馬廻-うままわり
+目付-めつけ
+赴く-おもむく</t>
   </si>
   <si>
     <t>豊臣　秀吉
@@ -184,6 +295,187 @@
 人望-じんぼう
 次々と-动作、作用的方式、状态
 唱える-となえる</t>
+  </si>
+  <si>
+    <t>ねね</t>
+  </si>
+  <si>
+    <t>高台院、北政所とも。秀吉の妻。妻としてだけでなく、朝廷との交渉など政治家としても秀吉を支えた。子はなかったが加藤清正ら多くの家臣を養育した。</t>
+  </si>
+  <si>
+    <t>北政所-きたのまんどころ</t>
+  </si>
+  <si>
+    <t>木下　秀長</t>
+  </si>
+  <si>
+    <t>きのした　ひでなが</t>
+  </si>
+  <si>
+    <t>秀吉の異父弟。兄の片腕として、その覇業に貢献する。温和で人望高く、秀吉と他大名との折衝役を務めた。秀吉に先だって死去、諸将にその死を惜しまれた。</t>
+  </si>
+  <si>
+    <t>折衝-せっしょう
+先立つ-さきだつ</t>
+  </si>
+  <si>
+    <t>浅野　長政</t>
+  </si>
+  <si>
+    <t>あさの　ながまさ</t>
+  </si>
+  <si>
+    <t>豊臣家臣。秀吉の正室・寧子の義弟。五奉行筆頭として主家の執政に参画した。秀吉の死後、石田三成と対立して徳川家康に接近し、以後は徳川家に仕えた。</t>
+  </si>
+  <si>
+    <t>義弟-ぎてい</t>
+  </si>
+  <si>
+    <t>石田　三成</t>
+  </si>
+  <si>
+    <t>いしだ　みつなり</t>
+  </si>
+  <si>
+    <t>豊臣家臣。五奉行の１人として国政に参画。主君・秀吉の死後、西軍を指揮して徳川家康と関ケ原で戦うが、諸将の統制をとれずに敗れ、京都で斬首された。</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>前田　玄以</t>
+  </si>
+  <si>
+    <t>まえだ　げんい</t>
+  </si>
+  <si>
+    <t>豊臣家臣。はじめ延暦寺の僧であったが還俗し、織田信忠に仕える。本能寺の変の際は信忠の嫡男・秀信を守って脱出した。のちに豊臣家五奉行の１人となる。</t>
+  </si>
+  <si>
+    <t>延暦寺-えんりゃくじ
+僧-そう
+還俗-げんぞく</t>
+  </si>
+  <si>
+    <t>増田　長盛</t>
+  </si>
+  <si>
+    <t>ました　ながもり</t>
+  </si>
+  <si>
+    <t>豊臣家臣。五奉行の１人として検地などを行う。豊臣秀次の死後、大和郡山２０万石を領した。関ケ原合戦の際は大阪城で豊臣秀頼を守る。戦後、改易された。</t>
+  </si>
+  <si>
+    <t>竹中　重治</t>
+  </si>
+  <si>
+    <t>たけなか　しげはる</t>
+  </si>
+  <si>
+    <t>斎藤家臣。わずか１６人で主家の居城・稲葉山城を乗っ取る。その卓抜した知略を羽柴秀吉に見込まれ、軍師となった。秀吉の中国攻めに従軍し、陣中で病没。</t>
+  </si>
+  <si>
+    <t>卓抜-たくばつ</t>
+  </si>
+  <si>
+    <t>黒田　孝高</t>
+  </si>
+  <si>
+    <t>くろだ　よしたか</t>
+  </si>
+  <si>
+    <t>豊臣家臣。主君・秀吉の参謀を務め、秀吉の天下統一に大きく貢献した。しかしその卓抜した戦略的手腕を恐れられる、禄高は豊前中津１２万石に抑えられた。</t>
+  </si>
+  <si>
+    <t>禄高-ろくだか</t>
+  </si>
+  <si>
+    <t>後藤　基次</t>
+  </si>
+  <si>
+    <t>ごとう　もとつぐ</t>
+  </si>
+  <si>
+    <t>黒田家臣。侍大将を務めるが、謀叛の嫌疑により浪人。のち豊臣秀頼に招かれ、大阪城に入る。人望を集め、徳川軍相手に奮戦するが、大坂夏の陣で戦死した。</t>
+  </si>
+  <si>
+    <t>侍大将-さむらいだいしょう
+招く-まねく</t>
+  </si>
+  <si>
+    <t>蜂須賀　正勝</t>
+  </si>
+  <si>
+    <t>はちすか　まさかつ</t>
+  </si>
+  <si>
+    <t>豊臣家臣。墨俣一夜城の築城に協力し、以後、秀吉の参謀として民政・調略に手腕を発揮。四国征伐後、長宗我部家への抑えとして阿波徳島１８万石を領した。</t>
+  </si>
+  <si>
+    <t>墨俣-すのまた
+征伐-せいばつ</t>
+  </si>
+  <si>
+    <t>大谷　吉継</t>
+  </si>
+  <si>
+    <t>おおたに　よしつぐ</t>
+  </si>
+  <si>
+    <t>豊臣家臣。関ケ原合戦で西軍に属す。親友・石田三成のために病をおして奮戦、藤堂高虎の軍を撃退するが、寝返った小早川秀秋軍に攻められ敗北、自害した。</t>
+  </si>
+  <si>
+    <t>寝返る-ねかえる
+敗北-はいぼく</t>
+  </si>
+  <si>
+    <t>福島　正則</t>
+  </si>
+  <si>
+    <t>ふくしま　まさのり</t>
+  </si>
+  <si>
+    <t>豊臣家臣。賤ヶ岳七本槍の筆頭。関ケ原合戦では東軍の主力として奮戦し、安芸広島４９万石を得る。しかし、のちに居城・広島城無断修築の罪で改易された。</t>
+  </si>
+  <si>
+    <t>無断-むだん</t>
+  </si>
+  <si>
+    <t>加藤　清正</t>
+  </si>
+  <si>
+    <t>かとう　きよまさ</t>
+  </si>
+  <si>
+    <t>豊臣家臣。賤ヶ岳七本槍の１人。朝鮮派兵で活躍し「虎加藤」の逸話を残す。秀吉死後は石田三成と対立、関ケ原合戦で東軍に属し、肥後熊本５２万石を得た。</t>
+  </si>
+  <si>
+    <t>派兵-はへい</t>
+  </si>
+  <si>
+    <t>加藤　嘉明</t>
+  </si>
+  <si>
+    <t>かとう　よしあきら</t>
+  </si>
+  <si>
+    <t>豊臣家臣。賤ヶ岳七本槍の１人。「沈勇の士」と評された。豊臣水軍の主力として各地の合戦で活躍。関ケ原合戦では東軍に属し、伊予松山２０万石を領した。</t>
+  </si>
+  <si>
+    <t>沈勇-ちんゆう</t>
+  </si>
+  <si>
+    <t>藤堂　高虎</t>
+  </si>
+  <si>
+    <t>とうどう　たかとら</t>
+  </si>
+  <si>
+    <t>徳川家康ほか７人の主君に仕え、主君を変える度に知行を増やし、伊勢安濃津３２万石を領す。合戦では常に先鋒を務め奮戦、また多くの普請を担当した。</t>
+  </si>
+  <si>
+    <t>知行-ちこう
+先鋒-せんぽう</t>
   </si>
   <si>
     <t>徳川　家康</t>
@@ -264,20 +556,43 @@
 翻す-ひるがえす</t>
   </si>
   <si>
-    <t>織田信長の妹。浅井長政に嫁ぐが、長政の自害後、実家に戻る。本能寺の変後は柴田勝家に嫁ぎ、勝家とともに越前北ノ庄城で自害した。絶世の美女と伝わる。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>命じる-めいじる
-転封-てんぽう</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>細川　藤孝</t>
+  </si>
+  <si>
+    <t>ほそかわ　ふじたか</t>
+  </si>
+  <si>
+    <t>足利家臣。主君・義輝の横死後は義輝の弟・義昭の擁立に貢献した。その後は的確な情勢判断で細川家の命脈を保った。古今伝授を受けた文化人としても著名。</t>
+  </si>
+  <si>
+    <t>横死-おうし
+命脈-めいみゃく</t>
+  </si>
+  <si>
+    <t>松永　久秀</t>
+  </si>
+  <si>
+    <t>まつなが　ひさひで</t>
+  </si>
+  <si>
+    <t>三好家臣。主家を奪い、将軍・足利義輝を殺し、東大寺だ大仏殿を焼いた稀代の梟雄。のち織田信長に属し、謀叛を起こすが敗れ「平蜘蛛」とともに爆死した。</t>
+  </si>
+  <si>
+    <t>梟雄-きょうゆう
+蜘蛛-くも</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +609,150 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -304,31 +763,202 @@
       <name val="宋体"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -351,13 +981,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,20 +1239,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -671,14 +1593,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -688,7 +1611,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="54">
+    <row r="2" ht="54" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="54">
+    <row r="3" ht="54" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="54">
+    <row r="4" ht="54" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,7 +1653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="54">
+    <row r="5" ht="54" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -744,191 +1667,541 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="54">
+    <row r="6" ht="54" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="54">
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="54">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="54">
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="54">
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="54">
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="54">
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="54">
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="54">
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="54">
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="54">
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="54">
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="54">
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>64</v>
+    <row r="19" ht="54" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="54" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" ht="54" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" ht="54" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" ht="54" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="54" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="2:5">
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="2:5">
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" ht="54" spans="2:5">
+      <c r="B33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="2:5">
+      <c r="B34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="2:5">
+      <c r="B35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="2:5">
+      <c r="B36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" ht="54" spans="2:5">
+      <c r="B37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" ht="54" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" ht="54" spans="2:5">
+      <c r="B39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" ht="54" spans="2:5">
+      <c r="B40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" ht="54" spans="2:5">
+      <c r="B41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" ht="54" spans="2:5">
+      <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" ht="54" spans="2:5">
+      <c r="B43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>織田　信長</t>
   </si>
@@ -264,6 +264,18 @@
 粉砕-ふんさい</t>
   </si>
   <si>
+    <t>山内　一豊</t>
+  </si>
+  <si>
+    <t>やまうち　かずとよ</t>
+  </si>
+  <si>
+    <t>織田家臣。妻・千代の内助の功が著名。本能寺の変後は豊臣秀吉に属す。関ケ原合戦の際は居城・掛川城を徳川家康に献上し、戦後、土佐高知２４万石を得た。</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>不破　光治</t>
   </si>
   <si>
@@ -340,9 +352,6 @@
     <t>豊臣家臣。五奉行の１人として国政に参画。主君・秀吉の死後、西軍を指揮して徳川家康と関ケ原で戦うが、諸将の統制をとれずに敗れ、京都で斬首された。</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>前田　玄以</t>
   </si>
   <si>
@@ -478,6 +487,18 @@
 先鋒-せんぽう</t>
   </si>
   <si>
+    <t>京極　高次</t>
+  </si>
+  <si>
+    <t>きょうごく　たかつぐ</t>
+  </si>
+  <si>
+    <t>豊臣家臣。高吉の子。妻と妹の縁故により豊臣秀吉に仕え、近江大津６万石を領す。関ケ原合戦では東軍に属し居城に籠城、西軍の一部を大津に足止めさせた。</t>
+  </si>
+  <si>
+    <t>足止めする-あしどめする</t>
+  </si>
+  <si>
     <t>徳川　家康</t>
   </si>
   <si>
@@ -488,6 +509,110 @@
   </si>
   <si>
     <t>収める-おさめる</t>
+  </si>
+  <si>
+    <t>本多　正信</t>
+  </si>
+  <si>
+    <t>ほんだ　まさのぶ</t>
+  </si>
+  <si>
+    <t>徳川家臣。三河一向一揆に身を投じて主家を離反、諸国を放浪したのちに帰参。行政と謀略に優れた手腕を発揮した。主君・家康には「友」と呼ばれたという。</t>
+  </si>
+  <si>
+    <t>酒井　忠次</t>
+  </si>
+  <si>
+    <t>さかい　ただつぐ</t>
+  </si>
+  <si>
+    <t>徳川家臣。徳川四天王筆頭。主君・家康の養育係を務めた。家康成人後は東三河衆を率いて各地を転戦し活躍。その才覚は織田信長や豊臣秀吉にも称賛された。</t>
+  </si>
+  <si>
+    <t>才覚-さいかく</t>
+  </si>
+  <si>
+    <t>本多　忠勝</t>
+  </si>
+  <si>
+    <t>ほんだ　ただかつ</t>
+  </si>
+  <si>
+    <t>徳川家臣。徳川四天王の１人。「家康に過ぎたるもの」と評された家中随一の猛将。名槍・蜻蛉切を手に５７度の合戦に参陣し、傷一つ負わなかったという。</t>
+  </si>
+  <si>
+    <t>蜻蛉切-とんぼきり</t>
+  </si>
+  <si>
+    <t>榊原　康政</t>
+  </si>
+  <si>
+    <t>さかきばら　やすまさ</t>
+  </si>
+  <si>
+    <t>徳川家臣。徳川四天王の１人。「無」の旗を掲げて戦場を疾駆し、各地で抜群の功を立てた。晩年、「老臣権を争うは亡国の兆し」と老中への就任を辞退した。</t>
+  </si>
+  <si>
+    <t>掲げる-かかげる
+兆す-きざす</t>
+  </si>
+  <si>
+    <t>井伊　直政</t>
+  </si>
+  <si>
+    <t>いい　なおまさ</t>
+  </si>
+  <si>
+    <t>徳川家臣。徳川四天王の１人。軍装を赤で統一した軍兵は「赤鬼」と恐れられ、常に先鋒を争った。関ケ原合戦では島津軍を追撃し、島津豊久を討ち取った。</t>
+  </si>
+  <si>
+    <t>石川　数正</t>
+  </si>
+  <si>
+    <t>いしかわ　かずまさ</t>
+  </si>
+  <si>
+    <t>徳川家臣。家老を務め、西三河衆を率いて活躍した。小牧長久手合戦後、豊臣家へ出奔。そのため、徳川家は三河以来の軍制を武田流に改めることになった。</t>
+  </si>
+  <si>
+    <t>鳥居　元忠</t>
+  </si>
+  <si>
+    <t>とりい　もとただ</t>
+  </si>
+  <si>
+    <t>徳川家臣。関ケ原合戦の際に主君・家康の命で伏見城に籠城する。１３日間の攻防戦の末、城兵とともに玉砕した。その忠節は「三河武士の鑑」と称賛とれた。</t>
+  </si>
+  <si>
+    <t>伏見城-ふしみじょう
+鑑-かがみ</t>
+  </si>
+  <si>
+    <t>服部　正成</t>
+  </si>
+  <si>
+    <t>はっとり　まさなり</t>
+  </si>
+  <si>
+    <t>徳川家臣。半三保長の子。父の跡を継ぎ隠密頭を務める。主君・家康の伊賀越えの際には、警護を担当し、無事に帰国させた。「鬼の半蔵」の異名をとった。</t>
+  </si>
+  <si>
+    <t>隠密-おんみつ
+無事-ぶじ</t>
+  </si>
+  <si>
+    <t>徳川　秀忠</t>
+  </si>
+  <si>
+    <t>とくがわ　ひでただ</t>
+  </si>
+  <si>
+    <t>家康の三男。関ケ原合戦の際、中山道からの進軍を真田昌幸に阻まれ、父の不興を買う。しかし、凡庸篤実な人柄を父に見込まれ、江戸幕府２代将軍となった。</t>
+  </si>
+  <si>
+    <t>阻む-はばむ
+不興-ふきょう
+篤実-とくじつ</t>
   </si>
   <si>
     <t>今川　義元</t>
@@ -581,25 +706,27 @@
     <t>梟雄-きょうゆう
 蜘蛛-くも</t>
   </si>
+  <si>
+    <t>島津　義弘</t>
+  </si>
+  <si>
+    <t>ひまづ　よしひろ</t>
+  </si>
+  <si>
+    <t>島津家１７代当主。貴久の次男。伊東・大友両家を粉砕し、島津家を隆盛に導いた家中随一の猛将。朝鮮派兵の際は明の大軍を破り「」</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,7 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,13 +765,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -658,32 +778,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,7 +803,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,14 +848,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -738,6 +857,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -746,7 +873,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,13 +900,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,18 +1020,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -815,43 +1050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,97 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,6 +1133,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1017,6 +1153,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,35 +1181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1079,6 +1195,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1087,10 +1214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,137 +1226,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,9 +1367,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,10 +1719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1674,7 +1798,7 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1688,7 +1812,7 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1775,7 +1899,7 @@
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1898,10 +2022,10 @@
       <c r="C22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1910,23 +2034,23 @@
         <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1940,7 +2064,7 @@
       <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1954,7 +2078,7 @@
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1968,25 +2092,25 @@
       <c r="C27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:5">
       <c r="B28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" ht="54" spans="2:5">
@@ -1996,207 +2120,372 @@
       <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="54" spans="2:5">
       <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" ht="54" spans="2:5">
       <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="32" ht="54" spans="2:5">
       <c r="B32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" ht="54" spans="2:5">
       <c r="B33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" ht="54" spans="2:5">
       <c r="B34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" ht="54" spans="2:5">
       <c r="B35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" ht="54" spans="2:5">
       <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" ht="54" spans="2:5">
       <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" ht="54" spans="2:5">
       <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" ht="54" spans="2:5">
       <c r="B39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="40" ht="54" spans="2:5">
       <c r="B40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="41" ht="54" spans="2:5">
       <c r="B41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" ht="54" spans="2:5">
+      <c r="B42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="42" ht="54" spans="2:5">
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="43" ht="54" spans="2:5">
+      <c r="B43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="C43" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" ht="54" spans="2:5">
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="44" ht="54" spans="2:5">
+      <c r="B44" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>164</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" ht="54" spans="2:5">
+      <c r="B45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" ht="54" spans="2:5">
+      <c r="B46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="2:5">
+      <c r="B47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" ht="54" spans="2:5">
+      <c r="B48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" ht="54" spans="2:5">
+      <c r="B49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" ht="54" spans="2:5">
+      <c r="B50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" ht="54" spans="2:5">
+      <c r="B51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" ht="54" spans="2:5">
+      <c r="B52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" ht="54" spans="2:5">
+      <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" ht="54" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" ht="54" spans="2:4">
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19020" windowHeight="4350"/>
+    <workbookView windowWidth="20490" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
   <si>
     <t>織田　信長</t>
   </si>
@@ -213,6 +213,18 @@
 蒸し返す-むしかえす</t>
   </si>
   <si>
+    <t>村井　貞勝</t>
+  </si>
+  <si>
+    <t>むらい　さだかつ</t>
+  </si>
+  <si>
+    <t>織田家臣。家中随一の吏僚。京都所司代を務め、京の治安維持、禁裏の修築などに従事し、主君・信長の内政を助けた。本能寺の変の際、二条御所で戦死した。</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>蒲生　氏郷</t>
   </si>
   <si>
@@ -271,9 +283,6 @@
   </si>
   <si>
     <t>織田家臣。妻・千代の内助の功が著名。本能寺の変後は豊臣秀吉に属す。関ケ原合戦の際は居城・掛川城を徳川家康に献上し、戦後、土佐高知２４万石を得た。</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>不破　光治</t>
@@ -331,6 +340,18 @@
 先立つ-さきだつ</t>
   </si>
   <si>
+    <t>宇喜多　直家</t>
+  </si>
+  <si>
+    <t>うきた　なおいえ</t>
+  </si>
+  <si>
+    <t>浦上家臣。乙子城主。権謀術数の限りを尽くして敵を葬り去り、家中最大の勢力を築き上げる。最後は主君・宗景を追放して備前国を掌握した稀代の謀将。</t>
+  </si>
+  <si>
+    <t>葬り去る-ほうむりさる</t>
+  </si>
+  <si>
     <t>浅野　長政</t>
   </si>
   <si>
@@ -499,6 +520,15 @@
     <t>足止めする-あしどめする</t>
   </si>
   <si>
+    <t>千　利休</t>
+  </si>
+  <si>
+    <t>せん　りきゅう</t>
+  </si>
+  <si>
+    <t>戦国時代の茶人。武野紹鴎から茶の湯を学ぶ。織田信長や豊臣秀吉に茶匠として仕え「わび茶」を大成させるなど活躍したが、秀吉と対立し、自害されられた。</t>
+  </si>
+  <si>
     <t>徳川　家康</t>
   </si>
   <si>
@@ -599,6 +629,18 @@
   <si>
     <t>隠密-おんみつ
 無事-ぶじ</t>
+  </si>
+  <si>
+    <t>南光坊　天海</t>
+  </si>
+  <si>
+    <t>なんこうぼう　てんかい</t>
+  </si>
+  <si>
+    <t>徳川家臣。比叡山で教学を究めた天台宗の僧。主君・家康の側近となり国政に辣腕を振るい「黒衣の宰相」と呼ばれた。明智光秀と同一人物との異説がある。</t>
+  </si>
+  <si>
+    <t>側近-そっきん</t>
   </si>
   <si>
     <t>徳川　秀忠</t>
@@ -622,19 +664,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>駿河の戦国大名。異母兄</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ ゴシック"/>
         <charset val="128"/>
       </rPr>
       <t>・</t>
@@ -656,6 +692,15 @@
 断ち-たち</t>
   </si>
   <si>
+    <t>太原　雪斎</t>
+  </si>
+  <si>
+    <t>たいげん　せっさい</t>
+  </si>
+  <si>
+    <t>今川家臣。執権を務めた。小豆坂の合戦で織田軍を破り、甲相駿三国同盟を成立させるなど、主家の政治、文化、経済、軍事、外交すべてに大きく貢献した。</t>
+  </si>
+  <si>
     <t>武田　信玄</t>
   </si>
   <si>
@@ -666,6 +711,30 @@
   </si>
   <si>
     <t>率いる-ひきいる</t>
+  </si>
+  <si>
+    <t>山県　昌景</t>
+  </si>
+  <si>
+    <t>やまがた　まさかげ</t>
+  </si>
+  <si>
+    <t>武田家臣。武田四名臣の１人。兄・飯富虎昌と同様、軍装を赤で統一。内政・軍事・外交全般で主君・信玄を補佐した。長篠合戦で全身に銃弾を浴び戦死した。</t>
+  </si>
+  <si>
+    <t>浴びる-あびる</t>
+  </si>
+  <si>
+    <t>山本　勘助</t>
+  </si>
+  <si>
+    <t>やまもと　かんすけ</t>
+  </si>
+  <si>
+    <t>武田家臣。文武百般に通じ、主君・信玄の軍師を務めた。第四次川中島の合戦で「啄木鳥の戦法」を上杉謙信に見破られた責を負い、乱軍に突入し戦死した。</t>
+  </si>
+  <si>
+    <t>啄木鳥-きつつき</t>
   </si>
   <si>
     <t>上杉　謙信</t>
@@ -681,6 +750,60 @@
 翻す-ひるがえす</t>
   </si>
   <si>
+    <t>柿崎　景家</t>
+  </si>
+  <si>
+    <t>かきざき　かげいえ</t>
+  </si>
+  <si>
+    <t>上杉家臣。主君・謙信に「越後七郡で彼にかなうものはなし」と評された家中随一の猛将。上杉軍の主力として活躍したが織田信長への内通疑惑により殺された。</t>
+  </si>
+  <si>
+    <t>宇佐美　定満</t>
+  </si>
+  <si>
+    <t>うさみ　さだみつ</t>
+  </si>
+  <si>
+    <t>上杉家臣。越後流軍学の祖という。上条定憲の乱の際は上条方に属すが、定憲の死後、帰参。国政に参画するなど活躍したが、長尾政景と舟遊び中に溺死した。</t>
+  </si>
+  <si>
+    <t>溺死-できし</t>
+  </si>
+  <si>
+    <t>直江　兼続</t>
+  </si>
+  <si>
+    <t>なおえ　かねつぐ</t>
+  </si>
+  <si>
+    <t>上杉家臣。筆頭家老を務めた。豊臣秀吉の評価は高く、陪臣ながら出羽米沢３０万石を領した。関ケ原合戦の際は西軍に属し、徳川家康に「直江状」を放った。</t>
+  </si>
+  <si>
+    <t>斎藤　道三</t>
+  </si>
+  <si>
+    <t>さいとう　どうさん</t>
+  </si>
+  <si>
+    <t>「蝮」の異名をとった美濃の戦国大名。僧から油商人に転身、次いで美濃守護・土岐頼芸に仕官、頼芸を追放して国主となった。のちに子・義龍と戦い、敗死。</t>
+  </si>
+  <si>
+    <t>蝮-まむし</t>
+  </si>
+  <si>
+    <t>足利　義昭</t>
+  </si>
+  <si>
+    <t>あしかが　よしあき</t>
+  </si>
+  <si>
+    <t>室町幕府１５代将軍。織田信長の後援で将軍役に就くがのちに対立、周辺諸国と協力して信長包囲網を敷く。自らも挙兵するが信長軍に敗れ、京を追われた。</t>
+  </si>
+  <si>
+    <t>敷く-しく</t>
+  </si>
+  <si>
     <t>細川　藤孝</t>
   </si>
   <si>
@@ -694,6 +817,15 @@
 命脈-めいみゃく</t>
   </si>
   <si>
+    <t>三好　長慶</t>
+  </si>
+  <si>
+    <t>みよし　ながよし</t>
+  </si>
+  <si>
+    <t>細川家臣。主家の実権を奪って勢力を拡げ、主君・晴元を追放して畿内の掌握に成功した。しかし嫡男・義興や弟たちの死後は心身に支障をきたし、病死した。</t>
+  </si>
+  <si>
     <t>松永　久秀</t>
   </si>
   <si>
@@ -707,13 +839,362 @@
 蜘蛛-くも</t>
   </si>
   <si>
+    <t>浅井　長政</t>
+  </si>
+  <si>
+    <t>あざい　ながまさ</t>
+  </si>
+  <si>
+    <t>近江の戦国大名。小谷城主。久政の子。織田信長の妹・市を娶るが、朝倉家との友誼を重んじ信長と敵対。居城を攻められ、市と娘たちを信長に託し自害した。</t>
+  </si>
+  <si>
+    <t>託する-たくする</t>
+  </si>
+  <si>
+    <t>朝倉　義景</t>
+  </si>
+  <si>
+    <t>あさくら　よしかげ</t>
+  </si>
+  <si>
+    <t>朝倉家５代当主。孝景の嫡男。将軍・足利義昭と結び織田信長包囲網の一角を担うが、次第に勢威を失う。刀根坂合戦で敗北を喫し、一族に背かれて自害した。</t>
+  </si>
+  <si>
+    <t>刀-かたな
+背く-そむく</t>
+  </si>
+  <si>
+    <t>朝倉　宗滴</t>
+  </si>
+  <si>
+    <t>あさくら　そうてき</t>
+  </si>
+  <si>
+    <t>朝倉家臣。朝倉家初代当主・敏景の子。軍奉行を務め、周辺諸国へ出兵し朝倉家の武威を内外に知らしめた。加賀一向一揆討伐の際に発病、帰国後に死去した。</t>
+  </si>
+  <si>
+    <t>六角　定頼</t>
+  </si>
+  <si>
+    <t>ろっかく　さだより</t>
+  </si>
+  <si>
+    <t>近江の戦国大名。近江に逃れた将軍・足利義晴を支援した。楽市楽座の創始や、一国一城令の先駆をなす「城割り」を初めて行った人物として著名。</t>
+  </si>
+  <si>
+    <t>逃れる-のがれる</t>
+  </si>
+  <si>
+    <t>島　左近</t>
+  </si>
+  <si>
+    <t>しま　さこん</t>
+  </si>
+  <si>
+    <t>筒井家臣。のち浪人し、石田三成に高禄で召し抱えられる。「三成に過ぎたるもの」と謳われた名将。関ケ原合戦で縦横無尽の活躍をし、壮絶な戦死を遂げた。</t>
+  </si>
+  <si>
+    <t>抱える-かかえる
+謳う-うたう
+壮絶な-そうぜつな</t>
+  </si>
+  <si>
+    <t>本願寺　顕如</t>
+  </si>
+  <si>
+    <t>ほんがんじ　けんにょ</t>
+  </si>
+  <si>
+    <t>本願寺１１世法主。証如の子。武家勢力に抵抗し、日本各地で一向宗門徒を蜂起させる。信長包囲網では中心的役割を担い、十年の長きに渡り戦いを続けた。</t>
+  </si>
+  <si>
+    <t>担う-になう</t>
+  </si>
+  <si>
+    <t>毛利　元就</t>
+  </si>
+  <si>
+    <t>もうり　もとなり</t>
+  </si>
+  <si>
+    <t>安芸の戦国大名。権謀術数を駆使して勢力を拡大、中国１０か国の主となった稀代の謀将。厳島合戦では数々謀略で陶晴賢を翻弄、５倍の兵力の敵を破った。</t>
+  </si>
+  <si>
+    <t>厳島-いつくしま
+翻弄-ほんろう</t>
+  </si>
+  <si>
+    <t>吉川　元春</t>
+  </si>
+  <si>
+    <t>きっかわ　もとはる</t>
+  </si>
+  <si>
+    <t>毛利元就の次男。安芸の豪族・吉川家を継、山陰地方の攻略にあたる。不敗を誇った家中随一の猛将である一方、陣中で「太平記」４０巻を写本したという。</t>
+  </si>
+  <si>
+    <t>誇る-ほこる</t>
+  </si>
+  <si>
+    <t>小早川　隆景</t>
+  </si>
+  <si>
+    <t>こばやかわ　たかかげ</t>
+  </si>
+  <si>
+    <t>毛利元就の三男。安芸の豪族・小早川家を継ぎ、山陽地方の攻略に当たる。本能寺の変後は毛利家の存続をはかって豊臣秀吉に接近し、五大老の１人となった。</t>
+  </si>
+  <si>
+    <t>尼子　経久</t>
+  </si>
+  <si>
+    <t>あまご　つねひさ</t>
+  </si>
+  <si>
+    <t>出雲の戦国大名。京極家に仕えるが、所領押領の罪で出雲守護代を罷免される。のちに居城・月山富田城を奪回して勢力を広げ、中国１１カ国の太守となった。</t>
+  </si>
+  <si>
+    <t>山中　鹿之介</t>
+  </si>
+  <si>
+    <t>やまなか　しかのすけ</t>
+  </si>
+  <si>
+    <t>尼子家臣。三日月に対し「我に七難八苦を…」と願ったという。尼子勝久を擁して主家再興を企むが、播磨上月城で毛利軍に敗れ、安芸への護送中に殺された。</t>
+  </si>
+  <si>
+    <t>企む-たくらむ</t>
+  </si>
+  <si>
+    <t>鈴木　重秀</t>
+  </si>
+  <si>
+    <t>すずき　しげひで</t>
+  </si>
+  <si>
+    <t>紀伊の豪族。佐大夫重意の子。通称「雑賀孫市」。雑賀の鉄砲衆を率いて石山本願寺に入り、織田信長の軍を苦しめた。石山開城後は豊臣秀吉に仕えたという。</t>
+  </si>
+  <si>
+    <t>長宗我部　元親</t>
+  </si>
+  <si>
+    <t>ちょうそかべ　もとちか</t>
+  </si>
+  <si>
+    <t>土佐の戦国大名。岡豊城主。国親の子。剽悍の一領具足衆を率い、瞬く間に周辺諸国を制圧。１０数年で四国統一を成し遂げ「土佐の出来人」の異名をとった。</t>
+  </si>
+  <si>
+    <t>成し遂げる-なしとげる</t>
+  </si>
+  <si>
+    <t>島津　義久</t>
+  </si>
+  <si>
+    <t>しまづ　よしひさ</t>
+  </si>
+  <si>
+    <t>島津家１６代当主。貴久の嫡男。優秀な弟たちの協力により領土を拡大、九州をほぼ手中に収めるが、豊臣秀吉の九州征伐軍に敗北し、薩摩１国を安堵された。</t>
+  </si>
+  <si>
     <t>島津　義弘</t>
   </si>
   <si>
-    <t>ひまづ　よしひろ</t>
-  </si>
-  <si>
-    <t>島津家１７代当主。貴久の次男。伊東・大友両家を粉砕し、島津家を隆盛に導いた家中随一の猛将。朝鮮派兵の際は明の大軍を破り「」</t>
+    <t>しまづ　よしひろ</t>
+  </si>
+  <si>
+    <t>島津家１７代当主。貴久の次男。伊東・大友両家を粉砕し、島津家を隆盛に導いた家中随一の猛将。朝鮮派兵の際は明の大軍を破り「鬼石曼子」と恐れられた。</t>
+  </si>
+  <si>
+    <t>島津　家久</t>
+  </si>
+  <si>
+    <t>しまづ　いえひさ</t>
+  </si>
+  <si>
+    <t>島津家臣。貴久の四男。永吉島津家の祖となる。沖田畷合戦の際は１０倍の兵力の龍造寺軍を破る。豊臣秀吉の九州征伐に降り、豊臣秀長の会見後に急死。</t>
+  </si>
+  <si>
+    <t>畷-なわて</t>
+  </si>
+  <si>
+    <t>大友　宗麟</t>
+  </si>
+  <si>
+    <t>おおとも　そうりん</t>
+  </si>
+  <si>
+    <t>大友家２１代当主。名は義鎮。義鑑の子。最盛期には九州６カ国を領したが、高城川合戦で島津軍に敗れて家臣を多数失い、以後は没落の一途をなどった。</t>
+  </si>
+  <si>
+    <t>立花　道雪</t>
+  </si>
+  <si>
+    <t>たちばな　どうせつ</t>
+  </si>
+  <si>
+    <t>大友家臣。立花城西城督。落雷で歩行不能となるが、輿を乗って常に大友軍の先陣を切り「鬼道雪」の異名をとった。生涯を軍陣で過ごした、家中随一の猛将。</t>
+  </si>
+  <si>
+    <t>落雷-らくらい
+輿-こし</t>
+  </si>
+  <si>
+    <t>高橋　紹運</t>
+  </si>
+  <si>
+    <t>たかはし　じょううん</t>
+  </si>
+  <si>
+    <t>大友家臣。筑前岩屋城主。吉弘鑑理の次男。立花道雪と双璧をなした猛将。島津軍５万軍勢を居城にてわずか７百の兵で迎撃、敵兵多数を道連れに玉砕した。</t>
+  </si>
+  <si>
+    <t>双璧-そうへき</t>
+  </si>
+  <si>
+    <t>立花　宗茂</t>
+  </si>
+  <si>
+    <t>たちばな　むねしげ</t>
+  </si>
+  <si>
+    <t>大友家臣。高橋紹運の子。立花道雪の娘を娶る。豊臣秀吉に「忠義と剛勇は鎮西一」と評された。関ケ原合戦で西軍に属して改易されるが、のち旧領に復した。</t>
+  </si>
+  <si>
+    <t>龍造寺　隆信</t>
+  </si>
+  <si>
+    <t>りゅうぞうじ　たかのぶ</t>
+  </si>
+  <si>
+    <t>龍造寺家１９代当主。周家の子。村中・水ケ江両家を統一して勢力を拡大し、九州５カ国２島を領した「肥前の熊」。沖田畷合戦で島津軍に大敗し、戦死した。</t>
+  </si>
+  <si>
+    <t>鍋島　直茂</t>
+  </si>
+  <si>
+    <t>なべしま　なおしげ</t>
+  </si>
+  <si>
+    <t>龍造寺家臣。清房の子。主家の発展に貢献した知勇兼備の将。主君・政家を後見して国政を執った。関ケ原合戦で東軍に属し、戦後、肥前の支配権を獲得した。</t>
+  </si>
+  <si>
+    <t>執る-とる
+獲得-かくとく</t>
+  </si>
+  <si>
+    <t>北条　氏綱</t>
+  </si>
+  <si>
+    <t>北条　うじつな</t>
+  </si>
+  <si>
+    <t>後北条家２代当主。「北条」の姓を初めて使用した。扇ケ谷上杉家の戦いや、小弓公方・足利家との第一次国府台合戦に勝つなど、着実に関東に地盤を築いた。</t>
+  </si>
+  <si>
+    <t>扇ヶ谷-おうぎがやつ
+着実-ちゃくじつ
+地盤-じばん</t>
+  </si>
+  <si>
+    <t>北条　氏康</t>
+  </si>
+  <si>
+    <t>ほうじょう　うじやす</t>
+  </si>
+  <si>
+    <t>後北条家３代当主。氏綱の嫡男。武田信玄・上杉謙信ら強豪としのぎを削り関東に一大王国を築いた。知勇兼備の名将で、戦国期随一の民政家としても著名。</t>
+  </si>
+  <si>
+    <t>削る-けずる
+築く-きずく</t>
+  </si>
+  <si>
+    <t>北条　綱成</t>
+  </si>
+  <si>
+    <t>ほうじょう　つなしげ</t>
+  </si>
+  <si>
+    <t>北条家臣。福島正成の子。父の死後、北条氏綱を頼り、氏綱の娘を娶って一門となる。河越合戦などで活躍し、その旗印より「地黄八幡」と呼ばれ畏怖された。</t>
+  </si>
+  <si>
+    <t>地黄八幡-じおうはちまん</t>
+  </si>
+  <si>
+    <t>伊達　政宗</t>
+  </si>
+  <si>
+    <t>だて　まさむね</t>
+  </si>
+  <si>
+    <t>伊達家１７代当主。輝宗の嫡男。瞬く間に周辺諸国を切り従えて２４歳で奥州に覇を唱え「独眼竜」と畏怖された。権謀術数で豊臣・徳川両政権を生き抜いた。</t>
+  </si>
+  <si>
+    <t>瞬く間-またたくま
+畏怖-いふ</t>
+  </si>
+  <si>
+    <t>伊達　成実</t>
+  </si>
+  <si>
+    <t>だて　しげざね</t>
+  </si>
+  <si>
+    <t>伊達家臣。実元の子。「武」の面で主君の政宗を補佐した伊達家中随一の猛将。「英毅大略あり」と評された。晩年には徳川家光に奥州の軍談を語っている。</t>
+  </si>
+  <si>
+    <t>英毅-えいき</t>
+  </si>
+  <si>
+    <t>片倉　小十郎</t>
+  </si>
+  <si>
+    <t>かたくら　こじゅうろう</t>
+  </si>
+  <si>
+    <t>伊達家臣。１９歳で主君・政宗の傅役となり「智」の面で政宗を補佐した智将。豊臣秀吉の小田原征伐に参陣するよう政宗を説得し、伊達家の存続に貢献した。</t>
+  </si>
+  <si>
+    <t>真田　昌幸</t>
+  </si>
+  <si>
+    <t>さなだ　まさゆき</t>
+  </si>
+  <si>
+    <t>幸隆の三男。「表裏比興の者」と豊臣秀吉に評された稀代の謀将。関ケ原へ行軍途中の徳川秀忠３万８千を数千の兵で翻弄し、秀忠軍を信濃に釘付けにした。</t>
+  </si>
+  <si>
+    <t>釘-くぎ</t>
+  </si>
+  <si>
+    <t>真田　幸村</t>
+  </si>
+  <si>
+    <t>さなだ　ゆきむら</t>
+  </si>
+  <si>
+    <t>昌幸の次男。蟄居先の紀伊九度山から大阪城に入り、大坂の陣で寡兵ながらも徳川の大軍を相手に奮戦した。その戦いぶりは「真田日本一の兵」と称賛された。</t>
+  </si>
+  <si>
+    <t>蟄居-ちっきょ</t>
+  </si>
+  <si>
+    <t>最上　義光</t>
+  </si>
+  <si>
+    <t>もがみ　よしあき</t>
+  </si>
+  <si>
+    <t>最上家１１代当主。義守の嫡男。父を隠居させ、弟を殺して当主となる。密約外交や敵重臣の暗殺など、権謀術数の限りを尽くして、最上家最大の版図を築いた。</t>
+  </si>
+  <si>
+    <t>津軽　為信</t>
+  </si>
+  <si>
+    <t>つがる　ためのぶ</t>
+  </si>
+  <si>
+    <t>弘前藩初代藩主。大浦為則の娘を娶る。主家・南部家から独立し、１７年かけて津軽を統一した。豊臣秀吉の小田原征伐に参陣し、正式に津軽の領主となった。</t>
   </si>
 </sst>
 </file>
@@ -736,14 +1217,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,20 +1295,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -796,37 +1314,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,29 +1352,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -900,19 +1381,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,49 +1459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,43 +1495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,13 +1531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,31 +1549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,9 +1592,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,8 +1637,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,15 +1673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1180,32 +1687,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1214,145 +1695,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,10 +1841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1372,7 +1850,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1719,17 +2200,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:E55"/>
+  <dimension ref="B2:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1739,13 +2220,13 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1753,13 +2234,13 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1770,7 +2251,7 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1784,7 +2265,7 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1798,7 +2279,7 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1812,7 +2293,7 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1899,7 +2380,7 @@
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2026,34 +2507,34 @@
         <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="54" spans="2:5">
       <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2062,41 +2543,41 @@
         <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" ht="54" spans="2:5">
       <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" ht="54" spans="2:5">
       <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:5">
@@ -2106,10 +2587,10 @@
       <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2120,11 +2601,11 @@
       <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>78</v>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="54" spans="2:5">
@@ -2134,10 +2615,10 @@
       <c r="C30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2148,151 +2629,151 @@
       <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>115</v>
+      <c r="E31" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="54" spans="2:5">
       <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" ht="54" spans="2:5">
       <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" ht="54" spans="2:5">
       <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" ht="54" spans="2:5">
       <c r="B35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" ht="54" spans="2:5">
       <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" ht="54" spans="2:5">
       <c r="B37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38" ht="54" spans="2:5">
       <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" ht="54" spans="2:5">
       <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="40" ht="54" spans="2:5">
       <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="41" ht="54" spans="2:5">
       <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="42" ht="54" spans="2:5">
@@ -2306,63 +2787,63 @@
         <v>157</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" ht="54" spans="2:5">
       <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="44" ht="54" spans="2:5">
       <c r="B44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" ht="54" spans="2:5">
       <c r="B45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="46" ht="54" spans="2:5">
       <c r="B46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="47" ht="54" spans="2:5">
@@ -2372,7 +2853,7 @@
       <c r="C47" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2386,106 +2867,725 @@
       <c r="C48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="54" spans="2:5">
       <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" ht="54" spans="2:5">
       <c r="B50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="51" ht="54" spans="2:5">
       <c r="B51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="52" ht="54" spans="2:5">
       <c r="B52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="2" t="s">
+    </row>
+    <row r="53" ht="54" spans="2:5">
+      <c r="B53" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="53" ht="54" spans="2:5">
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="54" ht="54" spans="2:5">
+      <c r="B54" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="C54" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="54" ht="54" spans="2:5">
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="1" t="s">
+    </row>
+    <row r="55" ht="54" spans="2:5">
+      <c r="B55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="55" ht="54" spans="2:4">
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" ht="54" spans="2:5">
+      <c r="B56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>207</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" ht="54" spans="2:5">
+      <c r="B57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" ht="54" spans="2:5">
+      <c r="B58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" ht="54" spans="2:5">
+      <c r="B59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" ht="54" spans="2:5">
+      <c r="B60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" ht="54" spans="2:5">
+      <c r="B61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" ht="54" spans="2:5">
+      <c r="B62" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" ht="54" spans="2:5">
+      <c r="B63" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" ht="54" spans="2:5">
+      <c r="B64" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" ht="54" spans="2:5">
+      <c r="B65" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" ht="54" spans="2:5">
+      <c r="B66" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" ht="54" spans="2:5">
+      <c r="B67" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="2:5">
+      <c r="B68" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" ht="54" spans="2:5">
+      <c r="B69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" ht="54" spans="2:5">
+      <c r="B70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" ht="54" spans="2:5">
+      <c r="B71" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" ht="54" spans="2:5">
+      <c r="B72" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" ht="54" spans="2:5">
+      <c r="B73" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" ht="54" spans="2:5">
+      <c r="B74" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" ht="54" spans="2:5">
+      <c r="B75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" ht="54" spans="2:5">
+      <c r="B76" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" ht="54" spans="2:5">
+      <c r="B77" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" ht="54" spans="2:5">
+      <c r="B78" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" ht="54" spans="2:5">
+      <c r="B79" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" ht="54" spans="2:5">
+      <c r="B80" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" ht="54" spans="2:5">
+      <c r="B81" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" ht="54" spans="2:5">
+      <c r="B82" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" ht="54" spans="2:5">
+      <c r="B83" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" ht="54" spans="2:5">
+      <c r="B84" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" ht="54" spans="2:5">
+      <c r="B85" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" ht="54" spans="2:5">
+      <c r="B86" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="2:5">
+      <c r="B87" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" ht="54" spans="2:5">
+      <c r="B88" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" ht="54" spans="2:5">
+      <c r="B89" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" ht="54" spans="2:5">
+      <c r="B90" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" ht="54" spans="2:5">
+      <c r="B91" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" ht="54" spans="2:5">
+      <c r="B92" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="2:5">
+      <c r="B93" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="94" ht="54" spans="2:5">
+      <c r="B94" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" ht="54" spans="2:5">
+      <c r="B95" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" ht="54" spans="2:5">
+      <c r="B96" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" ht="54" spans="2:5">
+      <c r="B97" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" ht="54" spans="2:5">
+      <c r="B98" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" ht="54" spans="2:5">
+      <c r="B99" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="367">
   <si>
     <t>織田　信長</t>
   </si>
@@ -671,7 +671,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="128"/>
+        <family val="3"/>
       </rPr>
       <t>・</t>
     </r>
@@ -1201,13 +1201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1224,349 +1218,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1589,251 +1259,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,57 +1285,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -2198,15 +1579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -2216,7 +1596,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="54" spans="2:5">
+    <row r="2" spans="2:5" ht="54">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="2:5">
+    <row r="3" spans="2:5" ht="54">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="2:5">
+    <row r="4" spans="2:5" ht="54">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="2:5">
+    <row r="5" spans="2:5" ht="54">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="2:5">
+    <row r="6" spans="2:5" ht="54">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2286,7 +1666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="54" spans="2:5">
+    <row r="7" spans="2:5" ht="54">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2300,7 +1680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="2:5">
+    <row r="8" spans="2:5" ht="54">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2314,7 +1694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="54" spans="2:5">
+    <row r="9" spans="2:5" ht="54">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2328,7 +1708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="54" spans="2:5">
+    <row r="10" spans="2:5" ht="54">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2342,7 +1722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="2:5">
+    <row r="11" spans="2:5" ht="54">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2356,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="2:5">
+    <row r="12" spans="2:5" ht="54">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -2370,7 +1750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" ht="54" spans="2:5">
+    <row r="13" spans="2:5" ht="54">
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
@@ -2384,7 +1764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" ht="54" spans="2:5">
+    <row r="14" spans="2:5" ht="54">
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2398,7 +1778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="54" spans="2:5">
+    <row r="15" spans="2:5" ht="54">
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
@@ -2412,7 +1792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" ht="54" spans="2:5">
+    <row r="16" spans="2:5" ht="54">
       <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
@@ -2426,7 +1806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" ht="54" spans="2:5">
+    <row r="17" spans="2:5" ht="54">
       <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
@@ -2440,7 +1820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" ht="54" spans="2:5">
+    <row r="18" spans="2:5" ht="54">
       <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
@@ -2454,7 +1834,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" ht="54" spans="2:5">
+    <row r="19" spans="2:5" ht="54">
       <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
@@ -2468,7 +1848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" ht="54" spans="2:5">
+    <row r="20" spans="2:5" ht="54">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
@@ -2482,7 +1862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="54" spans="2:5">
+    <row r="21" spans="2:5" ht="54">
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
@@ -2496,7 +1876,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" ht="54" spans="2:5">
+    <row r="22" spans="2:5" ht="54">
       <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
@@ -2510,7 +1890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" ht="54" spans="2:5">
+    <row r="23" spans="2:5" ht="54">
       <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
@@ -2524,7 +1904,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" ht="54" spans="2:5">
+    <row r="24" spans="2:5" ht="54">
       <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2538,7 +1918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" ht="54" spans="2:5">
+    <row r="25" spans="2:5" ht="54">
       <c r="B25" s="2" t="s">
         <v>90</v>
       </c>
@@ -2552,7 +1932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="2:5">
+    <row r="26" spans="2:5" ht="54">
       <c r="B26" s="2" t="s">
         <v>93</v>
       </c>
@@ -2566,7 +1946,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" ht="54" spans="2:5">
+    <row r="27" spans="2:5" ht="54">
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
@@ -2580,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" ht="54" spans="2:5">
+    <row r="28" spans="2:5" ht="54">
       <c r="B28" s="2" t="s">
         <v>101</v>
       </c>
@@ -2594,7 +1974,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" ht="54" spans="2:5">
+    <row r="29" spans="2:5" ht="54">
       <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
@@ -2608,7 +1988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="54" spans="2:5">
+    <row r="30" spans="2:5" ht="54">
       <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
@@ -2622,7 +2002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" ht="54" spans="2:5">
+    <row r="31" spans="2:5" ht="54">
       <c r="B31" s="2" t="s">
         <v>112</v>
       </c>
@@ -2636,7 +2016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" ht="54" spans="2:5">
+    <row r="32" spans="2:5" ht="54">
       <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
@@ -2650,7 +2030,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" ht="54" spans="2:5">
+    <row r="33" spans="2:5" ht="54">
       <c r="B33" s="2" t="s">
         <v>119</v>
       </c>
@@ -2664,7 +2044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" ht="54" spans="2:5">
+    <row r="34" spans="2:5" ht="54">
       <c r="B34" s="2" t="s">
         <v>123</v>
       </c>
@@ -2678,7 +2058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" ht="54" spans="2:5">
+    <row r="35" spans="2:5" ht="54">
       <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
@@ -2692,7 +2072,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" ht="54" spans="2:5">
+    <row r="36" spans="2:5" ht="54">
       <c r="B36" s="2" t="s">
         <v>131</v>
       </c>
@@ -2706,7 +2086,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" ht="54" spans="2:5">
+    <row r="37" spans="2:5" ht="54">
       <c r="B37" s="2" t="s">
         <v>135</v>
       </c>
@@ -2720,7 +2100,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" ht="54" spans="2:5">
+    <row r="38" spans="2:5" ht="54">
       <c r="B38" s="2" t="s">
         <v>139</v>
       </c>
@@ -2734,7 +2114,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" ht="54" spans="2:5">
+    <row r="39" spans="2:5" ht="54">
       <c r="B39" s="2" t="s">
         <v>143</v>
       </c>
@@ -2748,7 +2128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" ht="54" spans="2:5">
+    <row r="40" spans="2:5" ht="54">
       <c r="B40" s="2" t="s">
         <v>147</v>
       </c>
@@ -2762,7 +2142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" ht="54" spans="2:5">
+    <row r="41" spans="2:5" ht="54">
       <c r="B41" s="2" t="s">
         <v>151</v>
       </c>
@@ -2776,7 +2156,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" ht="54" spans="2:5">
+    <row r="42" spans="2:5" ht="54">
       <c r="B42" s="2" t="s">
         <v>155</v>
       </c>
@@ -2790,7 +2170,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" ht="54" spans="2:5">
+    <row r="43" spans="2:5" ht="54">
       <c r="B43" s="2" t="s">
         <v>158</v>
       </c>
@@ -2804,7 +2184,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" ht="54" spans="2:5">
+    <row r="44" spans="2:5" ht="54">
       <c r="B44" s="2" t="s">
         <v>162</v>
       </c>
@@ -2818,7 +2198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="54" spans="2:5">
+    <row r="45" spans="2:5" ht="54">
       <c r="B45" s="2" t="s">
         <v>165</v>
       </c>
@@ -2832,7 +2212,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" ht="54" spans="2:5">
+    <row r="46" spans="2:5" ht="54">
       <c r="B46" s="2" t="s">
         <v>169</v>
       </c>
@@ -2846,7 +2226,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" ht="54" spans="2:5">
+    <row r="47" spans="2:5" ht="54">
       <c r="B47" s="2" t="s">
         <v>173</v>
       </c>
@@ -2860,7 +2240,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" ht="54" spans="2:5">
+    <row r="48" spans="2:5" ht="54">
       <c r="B48" s="2" t="s">
         <v>177</v>
       </c>
@@ -2874,7 +2254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" ht="54" spans="2:5">
+    <row r="49" spans="2:5" ht="54">
       <c r="B49" s="2" t="s">
         <v>180</v>
       </c>
@@ -2888,7 +2268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" ht="54" spans="2:5">
+    <row r="50" spans="2:5" ht="54">
       <c r="B50" s="2" t="s">
         <v>183</v>
       </c>
@@ -2902,7 +2282,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" ht="54" spans="2:5">
+    <row r="51" spans="2:5" ht="54">
       <c r="B51" s="2" t="s">
         <v>187</v>
       </c>
@@ -2916,7 +2296,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" ht="54" spans="2:5">
+    <row r="52" spans="2:5" ht="54">
       <c r="B52" s="2" t="s">
         <v>191</v>
       </c>
@@ -2930,7 +2310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" ht="54" spans="2:5">
+    <row r="53" spans="2:5" ht="54">
       <c r="B53" s="2" t="s">
         <v>195</v>
       </c>
@@ -2944,7 +2324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" ht="54" spans="2:5">
+    <row r="54" spans="2:5" ht="54">
       <c r="B54" s="2" t="s">
         <v>199</v>
       </c>
@@ -2958,7 +2338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" ht="54" spans="2:5">
+    <row r="55" spans="2:5" ht="54">
       <c r="B55" s="2" t="s">
         <v>203</v>
       </c>
@@ -2972,7 +2352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" ht="54" spans="2:5">
+    <row r="56" spans="2:5" ht="54">
       <c r="B56" s="2" t="s">
         <v>206</v>
       </c>
@@ -2986,7 +2366,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" ht="54" spans="2:5">
+    <row r="57" spans="2:5" ht="54">
       <c r="B57" s="2" t="s">
         <v>210</v>
       </c>
@@ -3000,7 +2380,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" ht="54" spans="2:5">
+    <row r="58" spans="2:5" ht="54">
       <c r="B58" s="2" t="s">
         <v>214</v>
       </c>
@@ -3014,7 +2394,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" ht="54" spans="2:5">
+    <row r="59" spans="2:5" ht="54">
       <c r="B59" s="2" t="s">
         <v>218</v>
       </c>
@@ -3028,7 +2408,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" ht="54" spans="2:5">
+    <row r="60" spans="2:5" ht="54">
       <c r="B60" s="5" t="s">
         <v>222</v>
       </c>
@@ -3042,7 +2422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" ht="54" spans="2:5">
+    <row r="61" spans="2:5" ht="54">
       <c r="B61" s="5" t="s">
         <v>225</v>
       </c>
@@ -3056,7 +2436,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" ht="54" spans="2:5">
+    <row r="62" spans="2:5" ht="54">
       <c r="B62" s="5" t="s">
         <v>229</v>
       </c>
@@ -3070,7 +2450,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" ht="54" spans="2:5">
+    <row r="63" spans="2:5" ht="54">
       <c r="B63" s="5" t="s">
         <v>232</v>
       </c>
@@ -3084,7 +2464,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" ht="54" spans="2:5">
+    <row r="64" spans="2:5" ht="54">
       <c r="B64" s="5" t="s">
         <v>236</v>
       </c>
@@ -3098,7 +2478,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" ht="54" spans="2:5">
+    <row r="65" spans="2:5" ht="54">
       <c r="B65" s="5" t="s">
         <v>240</v>
       </c>
@@ -3112,7 +2492,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" ht="54" spans="2:5">
+    <row r="66" spans="2:5" ht="54">
       <c r="B66" s="5" t="s">
         <v>244</v>
       </c>
@@ -3126,7 +2506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" ht="54" spans="2:5">
+    <row r="67" spans="2:5" ht="54">
       <c r="B67" s="5" t="s">
         <v>247</v>
       </c>
@@ -3140,7 +2520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" ht="54" spans="2:5">
+    <row r="68" spans="2:5" ht="54">
       <c r="B68" s="5" t="s">
         <v>251</v>
       </c>
@@ -3154,7 +2534,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" ht="54" spans="2:5">
+    <row r="69" spans="2:5" ht="54">
       <c r="B69" s="5" t="s">
         <v>255</v>
       </c>
@@ -3168,7 +2548,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="2:5">
+    <row r="70" spans="2:5" ht="54">
       <c r="B70" s="5" t="s">
         <v>259</v>
       </c>
@@ -3182,7 +2562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" ht="54" spans="2:5">
+    <row r="71" spans="2:5" ht="54">
       <c r="B71" s="5" t="s">
         <v>262</v>
       </c>
@@ -3196,7 +2576,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" ht="54" spans="2:5">
+    <row r="72" spans="2:5" ht="54">
       <c r="B72" s="5" t="s">
         <v>266</v>
       </c>
@@ -3210,7 +2590,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" ht="54" spans="2:5">
+    <row r="73" spans="2:5" ht="54">
       <c r="B73" s="5" t="s">
         <v>270</v>
       </c>
@@ -3224,7 +2604,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" ht="54" spans="2:5">
+    <row r="74" spans="2:5" ht="54">
       <c r="B74" s="5" t="s">
         <v>274</v>
       </c>
@@ -3238,7 +2618,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" ht="54" spans="2:5">
+    <row r="75" spans="2:5" ht="54">
       <c r="B75" s="5" t="s">
         <v>278</v>
       </c>
@@ -3252,7 +2632,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" ht="54" spans="2:5">
+    <row r="76" spans="2:5" ht="54">
       <c r="B76" s="5" t="s">
         <v>282</v>
       </c>
@@ -3266,7 +2646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" ht="54" spans="2:5">
+    <row r="77" spans="2:5" ht="54">
       <c r="B77" s="5" t="s">
         <v>285</v>
       </c>
@@ -3280,7 +2660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" ht="54" spans="2:5">
+    <row r="78" spans="2:5" ht="54">
       <c r="B78" s="5" t="s">
         <v>288</v>
       </c>
@@ -3294,7 +2674,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" ht="54" spans="2:5">
+    <row r="79" spans="2:5" ht="54">
       <c r="B79" s="5" t="s">
         <v>292</v>
       </c>
@@ -3308,7 +2688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" ht="54" spans="2:5">
+    <row r="80" spans="2:5" ht="54">
       <c r="B80" s="5" t="s">
         <v>295</v>
       </c>
@@ -3322,7 +2702,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="81" ht="54" spans="2:5">
+    <row r="81" spans="2:5" ht="54">
       <c r="B81" s="5" t="s">
         <v>299</v>
       </c>
@@ -3336,7 +2716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" ht="54" spans="2:5">
+    <row r="82" spans="2:5" ht="54">
       <c r="B82" s="5" t="s">
         <v>302</v>
       </c>
@@ -3350,7 +2730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" ht="54" spans="2:5">
+    <row r="83" spans="2:5" ht="54">
       <c r="B83" s="5" t="s">
         <v>305</v>
       </c>
@@ -3364,7 +2744,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" ht="54" spans="2:5">
+    <row r="84" spans="2:5" ht="54">
       <c r="B84" s="5" t="s">
         <v>309</v>
       </c>
@@ -3378,7 +2758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" ht="54" spans="2:5">
+    <row r="85" spans="2:5" ht="54">
       <c r="B85" s="5" t="s">
         <v>312</v>
       </c>
@@ -3392,7 +2772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="86" ht="54" spans="2:5">
+    <row r="86" spans="2:5" ht="54">
       <c r="B86" s="5" t="s">
         <v>316</v>
       </c>
@@ -3406,7 +2786,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="2:5">
+    <row r="87" spans="2:5" ht="54">
       <c r="B87" s="5" t="s">
         <v>320</v>
       </c>
@@ -3420,7 +2800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" ht="54" spans="2:5">
+    <row r="88" spans="2:5" ht="54">
       <c r="B88" s="5" t="s">
         <v>323</v>
       </c>
@@ -3434,7 +2814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" ht="54" spans="2:5">
+    <row r="89" spans="2:5" ht="54">
       <c r="B89" s="5" t="s">
         <v>326</v>
       </c>
@@ -3448,7 +2828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" ht="54" spans="2:5">
+    <row r="90" spans="2:5" ht="54">
       <c r="B90" s="5" t="s">
         <v>330</v>
       </c>
@@ -3462,7 +2842,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" ht="54" spans="2:5">
+    <row r="91" spans="2:5" ht="54">
       <c r="B91" s="5" t="s">
         <v>334</v>
       </c>
@@ -3476,7 +2856,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" ht="54" spans="2:5">
+    <row r="92" spans="2:5" ht="54">
       <c r="B92" s="5" t="s">
         <v>338</v>
       </c>
@@ -3490,7 +2870,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="93" ht="54" spans="2:5">
+    <row r="93" spans="2:5" ht="54">
       <c r="B93" s="5" t="s">
         <v>342</v>
       </c>
@@ -3504,7 +2884,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" ht="54" spans="2:5">
+    <row r="94" spans="2:5" ht="54">
       <c r="B94" s="5" t="s">
         <v>346</v>
       </c>
@@ -3518,7 +2898,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="95" ht="54" spans="2:5">
+    <row r="95" spans="2:5" ht="54">
       <c r="B95" s="5" t="s">
         <v>350</v>
       </c>
@@ -3532,7 +2912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" ht="54" spans="2:5">
+    <row r="96" spans="2:5" ht="54">
       <c r="B96" s="5" t="s">
         <v>353</v>
       </c>
@@ -3546,7 +2926,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="2:5">
+    <row r="97" spans="2:5" ht="54">
       <c r="B97" s="5" t="s">
         <v>357</v>
       </c>
@@ -3560,7 +2940,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="98" ht="54" spans="2:5">
+    <row r="98" spans="2:5" ht="54">
       <c r="B98" s="5" t="s">
         <v>361</v>
       </c>
@@ -3574,7 +2954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" ht="54" spans="2:5">
+    <row r="99" spans="2:5" ht="54">
       <c r="B99" s="5" t="s">
         <v>364</v>
       </c>
@@ -3589,8 +2969,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520"/>
+    <workbookView windowWidth="19020" windowHeight="3750"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398">
   <si>
     <t>織田　信長</t>
   </si>
@@ -44,6 +44,18 @@
 嫁ぐ-とつぐ</t>
   </si>
   <si>
+    <t>織田　信秀</t>
+  </si>
+  <si>
+    <t>おだ　のぶひで</t>
+  </si>
+  <si>
+    <t>尾張の戦国大名。「尾張の虎」と呼ばれた猛将で、尾張統一を目指して近隣の今川家、斎藤家らと抗戦を続けたが、志半ばにして流行病にかかり、急死した。</t>
+  </si>
+  <si>
+    <t>志半ば-こころざしなかば</t>
+  </si>
+  <si>
     <t>明智　光秀</t>
   </si>
   <si>
@@ -327,6 +339,18 @@
     <t>北政所-きたのまんどころ</t>
   </si>
   <si>
+    <t>茶々</t>
+  </si>
+  <si>
+    <t>ちゃちゃ</t>
+  </si>
+  <si>
+    <t>浅井長政の長女。淀殿。豊臣秀吉に引き取られて側室となり、秀頼を産む。秀吉の死後に大阪城内で絶大な権力を誇る。大阪落城時に秀頼とともに自害した。</t>
+  </si>
+  <si>
+    <t>淀殿-よどどの</t>
+  </si>
+  <si>
     <t>木下　秀長</t>
   </si>
   <si>
@@ -664,6 +688,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>駿河の戦国大名。異母兄</t>
     </r>
     <r>
@@ -671,7 +701,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>・</t>
     </r>
@@ -713,6 +743,18 @@
     <t>率いる-ひきいる</t>
   </si>
   <si>
+    <t>山本　勘助</t>
+  </si>
+  <si>
+    <t>やまもと　かんすけ</t>
+  </si>
+  <si>
+    <t>武田家臣。文武百般に通じ、主君・信玄の軍師を務めた。第四次川中島の合戦で「啄木鳥の戦法」を上杉謙信に見破られた責を負い、乱軍に突入し戦死した。</t>
+  </si>
+  <si>
+    <t>啄木鳥-きつつき</t>
+  </si>
+  <si>
     <t>山県　昌景</t>
   </si>
   <si>
@@ -725,16 +767,13 @@
     <t>浴びる-あびる</t>
   </si>
   <si>
-    <t>山本　勘助</t>
-  </si>
-  <si>
-    <t>やまもと　かんすけ</t>
-  </si>
-  <si>
-    <t>武田家臣。文武百般に通じ、主君・信玄の軍師を務めた。第四次川中島の合戦で「啄木鳥の戦法」を上杉謙信に見破られた責を負い、乱軍に突入し戦死した。</t>
-  </si>
-  <si>
-    <t>啄木鳥-きつつき</t>
+    <t>馬場　信春</t>
+  </si>
+  <si>
+    <t>ばば　のぶはる</t>
+  </si>
+  <si>
+    <t>武田家臣。武田四名臣の１人。多くの合戦に参加し一度も負傷せず「不死身の鬼美濃」と呼ばれた。長篠合戦の際に殿軍として主君・勝頼の逃亡を助け、戦死。</t>
   </si>
   <si>
     <t>上杉　謙信</t>
@@ -780,6 +819,18 @@
     <t>上杉家臣。筆頭家老を務めた。豊臣秀吉の評価は高く、陪臣ながら出羽米沢３０万石を領した。関ケ原合戦の際は西軍に属し、徳川家康に「直江状」を放った。</t>
   </si>
   <si>
+    <t>小島　弥太郎</t>
+  </si>
+  <si>
+    <t>こじま　やたとう</t>
+  </si>
+  <si>
+    <t>上杉家臣。幼少から側近として主君・謙信に仕えた。川中島合戦には旗本として従軍。剛力無双の豪傑で「鬼小島」と呼ばれて恐れられ、数々の伝説を残した。</t>
+  </si>
+  <si>
+    <t>剛力-ごうりき</t>
+  </si>
+  <si>
     <t>斎藤　道三</t>
   </si>
   <si>
@@ -804,10 +855,10 @@
     <t>敷く-しく</t>
   </si>
   <si>
-    <t>細川　藤孝</t>
-  </si>
-  <si>
-    <t>ほそかわ　ふじたか</t>
+    <t>細川　幽斎</t>
+  </si>
+  <si>
+    <t>ほそかわ　ゆうさい</t>
   </si>
   <si>
     <t>足利家臣。主君・義輝の横死後は義輝の弟・義昭の擁立に貢献した。その後は的確な情勢判断で細川家の命脈を保った。古今伝授を受けた文化人としても著名。</t>
@@ -849,6 +900,15 @@
   </si>
   <si>
     <t>託する-たくする</t>
+  </si>
+  <si>
+    <t>朝倉　孝景</t>
+  </si>
+  <si>
+    <t>あさくら　たかかげ</t>
+  </si>
+  <si>
+    <t>朝倉家４代当主。卓抜した政治手腕で越前国内を安定させ、朝倉家の最盛期を現出した。隣国・加賀に積極的に侵攻し、一向一揆軍と戦った。歌道に優れた。</t>
   </si>
   <si>
     <t>朝倉　義景</t>
@@ -911,6 +971,27 @@
     <t>担う-になう</t>
   </si>
   <si>
+    <t>下間　頼廉</t>
+  </si>
+  <si>
+    <t>しもつま　らいれん</t>
+  </si>
+  <si>
+    <t>本願寺の坊官。石山合戦において法主・顕如に代わって全軍を指揮、織田信長に対し徹底抗戦を挑んだ。信長の死後、豊臣秀吉から本願寺町奉行に任じられた。</t>
+  </si>
+  <si>
+    <t>挑む-いどむ</t>
+  </si>
+  <si>
+    <t>鈴木　重秀</t>
+  </si>
+  <si>
+    <t>すずき　しげひで</t>
+  </si>
+  <si>
+    <t>紀伊の豪族。佐大夫重意の子。通称「雑賀孫市」。雑賀の鉄砲衆を率いて石山本願寺に入り、織田信長の軍を苦しめた。石山開城後は豊臣秀吉に仕えたという。</t>
+  </si>
+  <si>
     <t>毛利　元就</t>
   </si>
   <si>
@@ -924,6 +1005,15 @@
 翻弄-ほんろう</t>
   </si>
   <si>
+    <t>毛利　隆元</t>
+  </si>
+  <si>
+    <t>もうり　たかもと</t>
+  </si>
+  <si>
+    <t>安芸の戦国大名。元就の嫡男。大内家の人質となり、大内義隆から加冠され元服した。父の後言を受けて中国経略に従事するが、出雲遠征に向かう途中に急死。</t>
+  </si>
+  <si>
     <t>吉川　元春</t>
   </si>
   <si>
@@ -966,15 +1056,6 @@
     <t>企む-たくらむ</t>
   </si>
   <si>
-    <t>鈴木　重秀</t>
-  </si>
-  <si>
-    <t>すずき　しげひで</t>
-  </si>
-  <si>
-    <t>紀伊の豪族。佐大夫重意の子。通称「雑賀孫市」。雑賀の鉄砲衆を率いて石山本願寺に入り、織田信長の軍を苦しめた。石山開城後は豊臣秀吉に仕えたという。</t>
-  </si>
-  <si>
     <t>長宗我部　元親</t>
   </si>
   <si>
@@ -1003,6 +1084,15 @@
   </si>
   <si>
     <t>島津家１７代当主。貴久の次男。伊東・大友両家を粉砕し、島津家を隆盛に導いた家中随一の猛将。朝鮮派兵の際は明の大軍を破り「鬼石曼子」と恐れられた。</t>
+  </si>
+  <si>
+    <t>島津　歳久</t>
+  </si>
+  <si>
+    <t>しまづ　としひさ</t>
+  </si>
+  <si>
+    <t>島津家臣。貴久の三男。日置島津家の祖となる。豊臣秀吉の九州征伐軍に最後まで抵抗した。多くの家臣が梅北国兼の乱に加担したため、責任をとり自害した。</t>
   </si>
   <si>
     <t>島津　家久</t>
@@ -1186,6 +1276,15 @@
   </si>
   <si>
     <t>最上家１１代当主。義守の嫡男。父を隠居させ、弟を殺して当主となる。密約外交や敵重臣の暗殺など、権謀術数の限りを尽くして、最上家最大の版図を築いた。</t>
+  </si>
+  <si>
+    <t>佐竹　義重</t>
+  </si>
+  <si>
+    <t>さたけ　よししげ</t>
+  </si>
+  <si>
+    <t>佐竹家１８代当主。義昭の嫡男。父の遺志を継ぎ、常陸の統一に成功する。北条家と伊達家を敵に回し、陣頭で自ら采配を振るう姿は「鬼義重」と恐れられた。</t>
   </si>
   <si>
     <t>津軽　為信</t>
@@ -1201,7 +1300,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,25 +1323,349 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1259,13 +1688,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,14 +1952,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1579,14 +2294,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -1596,7 +2312,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="54">
+    <row r="2" ht="54" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="54">
+    <row r="3" ht="54" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="54">
+    <row r="4" ht="54" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +2354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="54">
+    <row r="5" ht="54" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +2368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="54">
+    <row r="6" ht="54" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1666,35 +2382,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="54">
+    <row r="7" ht="54" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="54">
+    <row r="8" ht="54" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="54">
+    <row r="9" ht="54" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1708,7 +2424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="54">
+    <row r="10" ht="54" spans="2:5">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1722,23 +2438,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="54">
+    <row r="11" ht="54" spans="2:5">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -1750,7 +2466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="54">
+    <row r="13" ht="54" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1764,7 +2480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="54">
+    <row r="14" ht="54" spans="2:5">
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1778,7 +2494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="54">
+    <row r="15" ht="54" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1792,7 +2508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="54">
+    <row r="16" ht="54" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1806,7 +2522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="54">
+    <row r="17" ht="54" spans="2:5">
       <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1820,7 +2536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="54">
+    <row r="18" ht="54" spans="2:5">
       <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +2550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="54">
+    <row r="19" ht="54" spans="2:5">
       <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1848,7 +2564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="54">
+    <row r="20" ht="54" spans="2:5">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1862,7 +2578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="54">
+    <row r="21" ht="54" spans="2:5">
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
@@ -1876,7 +2592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="54">
+    <row r="22" ht="54" spans="2:5">
       <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
@@ -1887,54 +2603,54 @@
         <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="54">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" ht="54" spans="2:5">
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="2:5">
       <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="54">
+    <row r="25" ht="54" spans="2:5">
       <c r="B25" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="54">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="2:5">
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>94</v>
@@ -1946,7 +2662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="54">
+    <row r="27" ht="54" spans="2:5">
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
@@ -1960,7 +2676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="54">
+    <row r="28" ht="54" spans="2:5">
       <c r="B28" s="2" t="s">
         <v>101</v>
       </c>
@@ -1974,7 +2690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="54">
+    <row r="29" ht="54" spans="2:5">
       <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
@@ -1985,66 +2701,66 @@
         <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="54">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="2:5">
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="54">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="2:5">
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="2:5">
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="54">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" ht="54" spans="2:5">
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="2:5">
       <c r="B34" s="2" t="s">
         <v>123</v>
       </c>
@@ -2058,7 +2774,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="54">
+    <row r="35" ht="54" spans="2:5">
       <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
@@ -2072,7 +2788,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="54">
+    <row r="36" ht="54" spans="2:5">
       <c r="B36" s="2" t="s">
         <v>131</v>
       </c>
@@ -2086,7 +2802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="54">
+    <row r="37" ht="54" spans="2:5">
       <c r="B37" s="2" t="s">
         <v>135</v>
       </c>
@@ -2100,7 +2816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="54">
+    <row r="38" ht="54" spans="2:5">
       <c r="B38" s="2" t="s">
         <v>139</v>
       </c>
@@ -2114,7 +2830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="54">
+    <row r="39" ht="54" spans="2:5">
       <c r="B39" s="2" t="s">
         <v>143</v>
       </c>
@@ -2128,7 +2844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="54">
+    <row r="40" ht="54" spans="2:5">
       <c r="B40" s="2" t="s">
         <v>147</v>
       </c>
@@ -2142,7 +2858,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="54">
+    <row r="41" ht="54" spans="2:5">
       <c r="B41" s="2" t="s">
         <v>151</v>
       </c>
@@ -2156,7 +2872,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="54">
+    <row r="42" ht="54" spans="2:5">
       <c r="B42" s="2" t="s">
         <v>155</v>
       </c>
@@ -2167,66 +2883,66 @@
         <v>157</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="54">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" ht="54" spans="2:5">
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="D43" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="54">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" ht="54" spans="2:5">
       <c r="B44" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="D44" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" ht="54" spans="2:5">
       <c r="B45" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="54">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" ht="54" spans="2:5">
       <c r="B46" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="2:5">
       <c r="B47" s="2" t="s">
         <v>173</v>
       </c>
@@ -2240,7 +2956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="54">
+    <row r="48" ht="54" spans="2:5">
       <c r="B48" s="2" t="s">
         <v>177</v>
       </c>
@@ -2251,52 +2967,52 @@
         <v>179</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="54">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" ht="54" spans="2:5">
       <c r="B49" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="54">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" ht="54" spans="2:5">
       <c r="B50" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" ht="54" spans="2:5">
       <c r="B51" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" ht="54" spans="2:5">
       <c r="B52" s="2" t="s">
         <v>191</v>
       </c>
@@ -2310,7 +3026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="54">
+    <row r="53" ht="54" spans="2:5">
       <c r="B53" s="2" t="s">
         <v>195</v>
       </c>
@@ -2324,21 +3040,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="54">
+    <row r="54" ht="54" spans="2:5">
       <c r="B54" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="54">
+    <row r="55" ht="54" spans="2:5">
       <c r="B55" s="2" t="s">
         <v>203</v>
       </c>
@@ -2349,38 +3065,38 @@
         <v>205</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="54">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" ht="54" spans="2:5">
       <c r="B56" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="D56" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="54">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" ht="54" spans="2:5">
       <c r="B57" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" ht="54" spans="2:5">
       <c r="B58" s="2" t="s">
         <v>214</v>
       </c>
@@ -2394,7 +3110,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="54">
+    <row r="59" ht="54" spans="2:5">
       <c r="B59" s="2" t="s">
         <v>218</v>
       </c>
@@ -2408,569 +3124,695 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="54">
-      <c r="B60" s="5" t="s">
+    <row r="60" ht="54" spans="2:5">
+      <c r="B60" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="54">
-      <c r="B61" s="5" t="s">
+      <c r="E60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="61" ht="54" spans="2:5">
+      <c r="B61" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" ht="54">
-      <c r="B62" s="5" t="s">
+      <c r="E61" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" ht="54" spans="2:5">
+      <c r="B62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="54">
-      <c r="B63" s="5" t="s">
+      <c r="E62" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="5" t="s">
+    </row>
+    <row r="63" ht="54" spans="2:5">
+      <c r="B63" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" ht="54">
-      <c r="B64" s="5" t="s">
+      <c r="E63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="54" spans="2:5">
+      <c r="B64" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="54">
-      <c r="B65" s="5" t="s">
+    <row r="65" ht="54" spans="2:5">
+      <c r="B65" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" ht="54" spans="2:5">
+      <c r="B66" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" ht="54">
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="54">
-      <c r="B67" s="5" t="s">
+    </row>
+    <row r="67" ht="54" spans="2:5">
+      <c r="B67" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="54">
-      <c r="B68" s="5" t="s">
+    <row r="68" ht="54" spans="2:5">
+      <c r="B68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="54">
-      <c r="B69" s="5" t="s">
+    <row r="69" ht="54" spans="2:5">
+      <c r="B69" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="54">
-      <c r="B70" s="5" t="s">
+    <row r="70" ht="54" spans="2:5">
+      <c r="B70" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="54">
-      <c r="B71" s="5" t="s">
+      <c r="E70" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" ht="54" spans="2:5">
+      <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="54">
-      <c r="B72" s="5" t="s">
+    <row r="72" ht="54" spans="2:5">
+      <c r="B72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="54">
-      <c r="B73" s="5" t="s">
+    <row r="73" ht="54" spans="2:5">
+      <c r="B73" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" ht="54" spans="2:5">
+      <c r="B74" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" ht="54">
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E74" s="5" t="s">
+    </row>
+    <row r="75" ht="54" spans="2:5">
+      <c r="B75" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" ht="54">
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" ht="54" spans="2:5">
+      <c r="B76" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" ht="54">
-      <c r="B76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D76" s="5" t="s">
+    </row>
+    <row r="77" ht="54" spans="2:5">
+      <c r="B77" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="54">
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="54">
-      <c r="B78" s="5" t="s">
+    </row>
+    <row r="78" ht="54" spans="2:5">
+      <c r="B78" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="54">
-      <c r="B79" s="5" t="s">
+    <row r="79" ht="54" spans="2:5">
+      <c r="B79" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="54">
-      <c r="B80" s="5" t="s">
+      <c r="E79" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C80" s="5" t="s">
+    </row>
+    <row r="80" ht="54" spans="2:5">
+      <c r="B80" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" ht="54">
-      <c r="B81" s="5" t="s">
+      <c r="E80" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" ht="54" spans="2:5">
+      <c r="B81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="54">
-      <c r="B82" s="5" t="s">
+      <c r="E81" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C82" s="5" t="s">
+    </row>
+    <row r="82" ht="54" spans="2:5">
+      <c r="B82" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="54">
-      <c r="B83" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="E82" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" ht="54" spans="2:5">
+      <c r="B83" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="D83" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" ht="54">
-      <c r="B84" s="5" t="s">
+      <c r="E83" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="5" t="s">
+    </row>
+    <row r="84" ht="54" spans="2:5">
+      <c r="B84" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="54">
-      <c r="B85" s="5" t="s">
+      <c r="D84" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="E84" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" ht="54" spans="2:5">
+      <c r="B85" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" ht="54">
-      <c r="B86" s="5" t="s">
+      <c r="E85" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" ht="54" spans="2:5">
+      <c r="B86" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="54">
-      <c r="B87" s="5" t="s">
+    <row r="87" ht="54" spans="2:5">
+      <c r="B87" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="54">
-      <c r="B88" s="5" t="s">
+      <c r="E87" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="5" t="s">
+    </row>
+    <row r="88" ht="54" spans="2:5">
+      <c r="B88" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="54">
-      <c r="B89" s="5" t="s">
+      <c r="D88" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="E88" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" ht="54" spans="2:5">
+      <c r="B89" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="D89" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" ht="54">
-      <c r="B90" s="5" t="s">
+      <c r="E89" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" ht="54" spans="2:5">
+      <c r="B90" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" ht="54" spans="2:5">
+      <c r="B91" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" ht="54">
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="E91" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E91" s="5" t="s">
+    </row>
+    <row r="92" ht="54" spans="2:5">
+      <c r="B92" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" ht="54">
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="2:5">
+      <c r="B93" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" ht="54">
-      <c r="B93" s="5" t="s">
+      <c r="D93" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="E93" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D93" s="5" t="s">
+    </row>
+    <row r="94" ht="54" spans="2:5">
+      <c r="B94" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" ht="54">
-      <c r="B94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="E94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D94" s="5" t="s">
+    </row>
+    <row r="95" ht="54" spans="2:5">
+      <c r="B95" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" ht="54">
-      <c r="B95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="E95" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" ht="54" spans="2:5">
+      <c r="B96" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="54">
-      <c r="B96" s="5" t="s">
+      <c r="D96" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="E96" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" ht="54" spans="2:5">
+      <c r="B97" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="D97" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" ht="54">
-      <c r="B97" s="5" t="s">
+      <c r="E97" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="5" t="s">
+    </row>
+    <row r="98" ht="54" spans="2:5">
+      <c r="B98" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" ht="54">
-      <c r="B98" s="5" t="s">
+      <c r="E98" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C98" s="5" t="s">
+    </row>
+    <row r="99" ht="54" spans="2:5">
+      <c r="B99" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="C99" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="54">
-      <c r="B99" s="5" t="s">
+      <c r="D99" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="E99" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D99" s="5" t="s">
+    </row>
+    <row r="100" ht="54" spans="2:5">
+      <c r="B100" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>62</v>
+      <c r="C100" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" ht="54" spans="2:5">
+      <c r="B101" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" ht="54" spans="2:5">
+      <c r="B102" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" ht="54" spans="2:5">
+      <c r="B103" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" ht="54" spans="2:5">
+      <c r="B104" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" ht="54" spans="2:5">
+      <c r="B105" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" ht="54" spans="2:5">
+      <c r="B106" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" ht="54" spans="2:5">
+      <c r="B107" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" ht="54" spans="2:5">
+      <c r="B108" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19020" windowHeight="3750"/>
+    <workbookView windowWidth="20490" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
@@ -1342,9 +1342,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,10 +1364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1372,10 +1380,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1389,37 +1397,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,9 +1413,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1449,16 +1449,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1471,7 +1471,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,7 +1480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,25 +1492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,7 +1516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,19 +1534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,31 +1552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,7 +1576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,7 +1594,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,19 +1642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,19 +1654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,15 +1696,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1721,33 +1760,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,27 +1779,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,10 +1800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,137 +1812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1947,6 +1953,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2298,8 +2307,8 @@
   <sheetPr/>
   <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3027,10 +3036,10 @@
       </c>
     </row>
     <row r="53" ht="54" spans="2:5">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3075,7 +3084,7 @@
       <c r="C56" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -3125,10 +3134,10 @@
       </c>
     </row>
     <row r="60" ht="54" spans="2:5">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -3699,10 +3708,10 @@
       </c>
     </row>
     <row r="101" ht="54" spans="2:5">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>371</v>
       </c>
       <c r="D101" s="2" t="s">

--- a/戦国時代人物.xlsx
+++ b/戦国時代人物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="戦国時代人物" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,7 @@
   <si>
     <t>桶狭間-おけはざま
 標榜-ひょうぼう
-統一-とういつ
-謀叛-むほん</t>
+統一-とういつ</t>
   </si>
   <si>
     <t>帰蝶</t>
@@ -479,7 +478,7 @@
     <t>豊臣家臣。関ケ原合戦で西軍に属す。親友・石田三成のために病をおして奮戦、藤堂高虎の軍を撃退するが、寝返った小早川秀秋軍に攻められ敗北、自害した。</t>
   </si>
   <si>
-    <t>寝返る-ねかえる
+    <t>寝返る-ねがえる
 敗北-はいぼく</t>
   </si>
   <si>
@@ -1301,10 +1300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1322,13 +1321,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1336,29 +1328,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,17 +1351,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,17 +1373,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,24 +1410,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,10 +1450,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1486,7 +1485,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,55 +1611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,37 +1629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,55 +1659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,11 +1718,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1739,32 +1744,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1792,6 +1771,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1800,10 +1799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1812,133 +1811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2308,7 +2307,7 @@
   <dimension ref="B2:E108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
